--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>721405.6290963147</v>
+        <v>719804.7747146689</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7765049.281621783</v>
+        <v>5301029.811029742</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6187346.756951103</v>
+        <v>3772361.273823851</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7427204.533068567</v>
+        <v>8484367.057907989</v>
       </c>
     </row>
     <row r="11">
@@ -662,13 +664,13 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>408.8216993703217</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>412.3136836568009</v>
       </c>
       <c r="G2" t="n">
         <v>404.6410012660961</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y4" t="n">
-        <v>129.1752199258839</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +898,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>396.6425927105685</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>277.8515995212852</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1051,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>241.988764995854</v>
+        <v>234.398419227</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>47.29907665890983</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>161.7257111612966</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>180.6077930059085</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1367,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
         <v>400.41929060787</v>
@@ -1385,7 +1387,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>84.73179601342665</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>393.9470907639073</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>27.35334490128912</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="14">
@@ -1604,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
@@ -1625,7 +1627,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>86.14767836534818</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,19 +1818,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>27.35334490128912</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -1841,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
         <v>400.41929060787</v>
@@ -1859,10 +1861,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1898,19 +1900,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>393.9470907639073</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>29.06736062834933</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2050,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U19" t="n">
         <v>279.9701659793371</v>
@@ -2068,7 +2070,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2078,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>380.3593268106412</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
@@ -2090,7 +2092,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>404.6410012660961</v>
@@ -2099,7 +2101,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>49.12308702887178</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2239,13 +2241,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>108.9227613460776</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2299,10 +2301,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>95.64534543336168</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2318,7 +2320,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>368.180220150888</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
         <v>400.41929060787</v>
@@ -2330,13 +2332,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>267.6295396397329</v>
       </c>
       <c r="H23" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2371,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>254.489886823085</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2488,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>41.64710512398458</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
@@ -2539,10 +2541,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>180.6077930059077</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2567,10 +2569,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>269.9562877695847</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
         <v>85.48824505609757</v>
@@ -2615,10 +2617,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>334.0755358138493</v>
       </c>
       <c r="Y26" t="n">
         <v>396.9273063213908</v>
@@ -2710,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>61.29303552505203</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>229.2663389906581</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2798,16 +2800,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>384.5327953590509</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>282.1353944293379</v>
       </c>
       <c r="G29" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>85.48824505609757</v>
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>53.44234321888706</v>
       </c>
       <c r="E31" t="n">
         <v>159.3017069803637</v>
@@ -2962,10 +2964,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>72.15339398280517</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3038,13 +3040,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>269.9562877695847</v>
+        <v>378.9769832968749</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
         <v>85.48824505609757</v>
@@ -3187,7 +3189,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>112.3157924738354</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3250,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>27.35334490128935</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>31.99018014062471</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3424,25 +3426,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>114.8789766704388</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,10 +3480,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>106.9706214097034</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
@@ -3490,7 +3492,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3512,10 +3514,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>378.9769832968749</v>
       </c>
       <c r="G38" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>307.7994123985592</v>
@@ -3560,7 +3562,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
-        <v>300.7823595432042</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
         <v>379.9226978561831</v>
@@ -3569,7 +3571,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>81.86324896100147</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3715,19 +3717,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>81.5631279582261</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
         <v>406.0233447798626</v>
@@ -3758,7 +3760,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3806,7 +3808,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>360.5621482941648</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3904,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>88.62880730984601</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>85.25432609134864</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3977,22 +3979,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,13 +4030,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>172.0356795662964</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
@@ -4043,7 +4045,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -4132,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>136.1769805884545</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
@@ -4150,10 +4152,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>54.68688746169129</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1678.033101815613</v>
+        <v>1277.096428763703</v>
       </c>
       <c r="C2" t="n">
-        <v>1267.908511128883</v>
+        <v>866.9718380769729</v>
       </c>
       <c r="D2" t="n">
-        <v>863.4445812219433</v>
+        <v>866.9718380769729</v>
       </c>
       <c r="E2" t="n">
-        <v>450.4933697367699</v>
+        <v>866.9718380769729</v>
       </c>
       <c r="F2" t="n">
         <v>450.4933697367699</v>
@@ -4334,22 +4336,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="L2" t="n">
-        <v>558.6080202959273</v>
+        <v>497.1688317915616</v>
       </c>
       <c r="M2" t="n">
-        <v>1054.568412147452</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="N2" t="n">
-        <v>1054.568412147452</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O2" t="n">
-        <v>1571.411346813777</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
@@ -4373,7 +4375,7 @@
         <v>2088.254281480102</v>
       </c>
       <c r="Y2" t="n">
-        <v>2088.254281480102</v>
+        <v>1687.317608428192</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4388,7 @@
         <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D3" t="n">
         <v>469.7036984844747</v>
@@ -4395,34 +4397,34 @@
         <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G3" t="n">
         <v>133.260889973646</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960218</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>234.5779431922354</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="K3" t="n">
-        <v>234.5779431922354</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="L3" t="n">
-        <v>234.5779431922354</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="M3" t="n">
-        <v>751.4208778585607</v>
+        <v>558.6080202959275</v>
       </c>
       <c r="N3" t="n">
-        <v>1268.263812524886</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O3" t="n">
-        <v>1738.409816796119</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P3" t="n">
         <v>1738.409816796119</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.76508562960205</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C4" t="n">
-        <v>41.76508562960205</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D4" t="n">
-        <v>41.76508562960205</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E4" t="n">
-        <v>41.76508562960205</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F4" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G4" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H4" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4510,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T4" t="n">
-        <v>1246.342524902554</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U4" t="n">
-        <v>963.5443774486778</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V4" t="n">
-        <v>689.6586323881997</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W4" t="n">
-        <v>410.5889678970741</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X4" t="n">
-        <v>172.2451057567575</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.76508562960205</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1678.033101815613</v>
+        <v>1262.093845275082</v>
       </c>
       <c r="C5" t="n">
-        <v>1267.908511128883</v>
+        <v>1262.093845275082</v>
       </c>
       <c r="D5" t="n">
-        <v>863.4445812219433</v>
+        <v>1262.093845275082</v>
       </c>
       <c r="E5" t="n">
-        <v>462.7954976759145</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="F5" t="n">
-        <v>41.76508562960205</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
@@ -4568,49 +4570,49 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
+        <v>41.76508562960205</v>
+      </c>
+      <c r="L5" t="n">
         <v>558.6080202959273</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>1075.450954962253</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
+        <v>1075.450954962253</v>
+      </c>
+      <c r="O5" t="n">
         <v>1592.293889628578</v>
       </c>
-      <c r="N5" t="n">
-        <v>1592.293889628578</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1726.536628995245</v>
-      </c>
       <c r="P5" t="n">
-        <v>1726.536628995245</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V5" t="n">
-        <v>2088.254281480102</v>
+        <v>1672.315024939571</v>
       </c>
       <c r="W5" t="n">
-        <v>2088.254281480102</v>
+        <v>1672.315024939571</v>
       </c>
       <c r="X5" t="n">
-        <v>2088.254281480102</v>
+        <v>1672.315024939571</v>
       </c>
       <c r="Y5" t="n">
-        <v>2088.254281480102</v>
+        <v>1672.315024939571</v>
       </c>
     </row>
     <row r="6">
@@ -4644,19 +4646,19 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>81.91922121582746</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>537.7254774811262</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>537.7254774811262</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M6" t="n">
-        <v>537.7254774811262</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N6" t="n">
-        <v>1054.568412147451</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O6" t="n">
         <v>1571.411346813777</v>
@@ -4699,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>865.1454348405214</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C7" t="n">
-        <v>694.0520624022379</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D7" t="n">
-        <v>534.5574177251478</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E7" t="n">
-        <v>373.6466025934674</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F7" t="n">
-        <v>209.0154767040586</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
         <v>41.76508562960205</v>
@@ -4747,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S7" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T7" t="n">
-        <v>1571.163982250452</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U7" t="n">
-        <v>1571.163982250452</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V7" t="n">
-        <v>1297.278237189974</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W7" t="n">
-        <v>1052.845141234566</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="X7" t="n">
-        <v>1052.845141234566</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y7" t="n">
-        <v>1052.845141234566</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>510.5723427859244</v>
+        <v>2541.96541775283</v>
       </c>
       <c r="C8" t="n">
-        <v>510.5723427859244</v>
+        <v>2131.840827066101</v>
       </c>
       <c r="D8" t="n">
-        <v>510.5723427859244</v>
+        <v>1727.376897159161</v>
       </c>
       <c r="E8" t="n">
-        <v>510.5723427859244</v>
+        <v>1313.036681676058</v>
       </c>
       <c r="F8" t="n">
-        <v>89.54193073961198</v>
+        <v>892.0062696297455</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>483.2779855225776</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>172.3694881502956</v>
       </c>
       <c r="I8" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>340.2031969351231</v>
       </c>
       <c r="K8" t="n">
-        <v>41.76508562960205</v>
+        <v>524.2900591047148</v>
       </c>
       <c r="L8" t="n">
-        <v>558.6080202959273</v>
+        <v>1236.881458916953</v>
       </c>
       <c r="M8" t="n">
-        <v>1054.568412147452</v>
+        <v>2013.200049908707</v>
       </c>
       <c r="N8" t="n">
-        <v>1571.411346813777</v>
+        <v>2766.381066547325</v>
       </c>
       <c r="O8" t="n">
-        <v>1571.411346813777</v>
+        <v>3410.01192296443</v>
       </c>
       <c r="P8" t="n">
-        <v>2088.254281480102</v>
+        <v>3939.168620883581</v>
       </c>
       <c r="Q8" t="n">
-        <v>2088.254281480102</v>
+        <v>4260.329627678873</v>
       </c>
       <c r="R8" t="n">
-        <v>2088.254281480102</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="S8" t="n">
-        <v>1952.973206274203</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="T8" t="n">
-        <v>1952.973206274203</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="U8" t="n">
-        <v>1695.912714533713</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="V8" t="n">
-        <v>1695.912714533713</v>
+        <v>4137.526969165108</v>
       </c>
       <c r="W8" t="n">
-        <v>1312.152413668882</v>
+        <v>3753.766668300277</v>
       </c>
       <c r="X8" t="n">
-        <v>911.5090158378343</v>
+        <v>3353.12327046923</v>
       </c>
       <c r="Y8" t="n">
-        <v>510.5723427859244</v>
+        <v>2952.18659741732</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161365</v>
+        <v>764.848567353903</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650821</v>
+        <v>630.8534961028488</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844746</v>
+        <v>513.9563383222412</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768026</v>
+        <v>393.4635223145692</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593071</v>
+        <v>284.5036424970738</v>
       </c>
       <c r="G9" t="n">
-        <v>133.2608899736458</v>
+        <v>177.5135298114125</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936187</v>
+        <v>106.7663168471286</v>
       </c>
       <c r="I9" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J9" t="n">
-        <v>234.5779431922353</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="K9" t="n">
-        <v>690.384199457534</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="L9" t="n">
-        <v>1207.227134123859</v>
+        <v>747.105897386657</v>
       </c>
       <c r="M9" t="n">
-        <v>1207.227134123859</v>
+        <v>747.105897386657</v>
       </c>
       <c r="N9" t="n">
-        <v>1207.227134123859</v>
+        <v>1620.763989498275</v>
       </c>
       <c r="O9" t="n">
-        <v>1571.411346813777</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="P9" t="n">
-        <v>2088.254281480102</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="Q9" t="n">
-        <v>2088.254281480102</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="R9" t="n">
-        <v>2088.254281480102</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="S9" t="n">
-        <v>1980.264271594411</v>
+        <v>2024.516911432177</v>
       </c>
       <c r="T9" t="n">
-        <v>1820.922407781419</v>
+        <v>1865.175047619186</v>
       </c>
       <c r="U9" t="n">
-        <v>1623.571596919638</v>
+        <v>1667.824236757404</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912671</v>
+        <v>1454.112709750438</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649</v>
+        <v>1240.879541486767</v>
       </c>
       <c r="X9" t="n">
-        <v>1020.300919787893</v>
+        <v>1064.55355962566</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517231</v>
+        <v>905.1515999894897</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.76508562960205</v>
+        <v>1175.351575768505</v>
       </c>
       <c r="C10" t="n">
-        <v>41.76508562960205</v>
+        <v>1004.258203330222</v>
       </c>
       <c r="D10" t="n">
-        <v>41.76508562960205</v>
+        <v>844.7635586531319</v>
       </c>
       <c r="E10" t="n">
-        <v>41.76508562960205</v>
+        <v>683.8527435214513</v>
       </c>
       <c r="F10" t="n">
-        <v>41.76508562960205</v>
+        <v>519.2216176320426</v>
       </c>
       <c r="G10" t="n">
-        <v>41.76508562960205</v>
+        <v>351.971226557586</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960205</v>
+        <v>202.3637713630426</v>
       </c>
       <c r="I10" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J10" t="n">
-        <v>55.84763503481257</v>
+        <v>100.1002748725793</v>
       </c>
       <c r="K10" t="n">
-        <v>210.3999627570506</v>
+        <v>254.6526025948173</v>
       </c>
       <c r="L10" t="n">
-        <v>470.2970630371111</v>
+        <v>514.5497028748778</v>
       </c>
       <c r="M10" t="n">
-        <v>759.5611194776044</v>
+        <v>803.813759315371</v>
       </c>
       <c r="N10" t="n">
-        <v>1040.399901871855</v>
+        <v>1084.652541709621</v>
       </c>
       <c r="O10" t="n">
-        <v>1299.960512198329</v>
+        <v>1344.213152036095</v>
       </c>
       <c r="P10" t="n">
-        <v>1505.635952447941</v>
+        <v>1549.888592285708</v>
       </c>
       <c r="Q10" t="n">
-        <v>1571.163982250452</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="R10" t="n">
-        <v>1485.891263925851</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="S10" t="n">
-        <v>1299.499495805762</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="T10" t="n">
-        <v>1059.950756782464</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="U10" t="n">
-        <v>777.1526093285881</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="V10" t="n">
-        <v>503.2668642681101</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="W10" t="n">
-        <v>224.1971997769844</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="X10" t="n">
-        <v>41.76508562960205</v>
+        <v>1587.786980773785</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.76508562960205</v>
+        <v>1363.05128216255</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1690.327927173125</v>
+        <v>2237.518802661711</v>
       </c>
       <c r="C11" t="n">
-        <v>1690.327927173125</v>
+        <v>1827.394211974981</v>
       </c>
       <c r="D11" t="n">
-        <v>1285.863997266186</v>
+        <v>1422.930282068041</v>
       </c>
       <c r="E11" t="n">
-        <v>871.5237817830823</v>
+        <v>1008.590066584938</v>
       </c>
       <c r="F11" t="n">
-        <v>450.4933697367699</v>
+        <v>587.5596545386256</v>
       </c>
       <c r="G11" t="n">
-        <v>41.76508562960205</v>
+        <v>178.8313704314578</v>
       </c>
       <c r="H11" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I11" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>41.76508562960205</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>41.76508562960205</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L11" t="n">
-        <v>558.6080202959273</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M11" t="n">
-        <v>1075.450954962253</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N11" t="n">
-        <v>1592.293889628578</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O11" t="n">
-        <v>2088.254281480102</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P11" t="n">
-        <v>2088.254281480102</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q11" t="n">
-        <v>2088.254281480102</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R11" t="n">
-        <v>2088.254281480102</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>2088.254281480102</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T11" t="n">
-        <v>2088.254281480102</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U11" t="n">
-        <v>2088.254281480102</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V11" t="n">
-        <v>2088.254281480102</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W11" t="n">
-        <v>2088.254281480102</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X11" t="n">
-        <v>2088.254281480102</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y11" t="n">
-        <v>1690.327927173125</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>720.5959275161365</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C12" t="n">
-        <v>586.6008562650821</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D12" t="n">
-        <v>469.7036984844746</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E12" t="n">
-        <v>349.2108824768026</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F12" t="n">
-        <v>240.2510026593071</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G12" t="n">
-        <v>133.2608899736458</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H12" t="n">
-        <v>62.51367700936187</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I12" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K12" t="n">
-        <v>497.5713418949007</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L12" t="n">
-        <v>497.5713418949007</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M12" t="n">
-        <v>1014.414276561226</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N12" t="n">
-        <v>1531.257211227551</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O12" t="n">
-        <v>2048.100145893876</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P12" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q12" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R12" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S12" t="n">
-        <v>1980.264271594411</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T12" t="n">
-        <v>1820.922407781419</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U12" t="n">
-        <v>1623.571596919638</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V12" t="n">
-        <v>1409.860069912671</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W12" t="n">
-        <v>1196.626901649</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X12" t="n">
-        <v>1020.300919787893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y12" t="n">
-        <v>860.8989601517231</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1131.098935930739</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C13" t="n">
-        <v>960.0055634924552</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D13" t="n">
-        <v>800.5109188153651</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E13" t="n">
-        <v>639.6001036836846</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F13" t="n">
-        <v>474.9689777942758</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G13" t="n">
-        <v>307.7185867198193</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H13" t="n">
-        <v>158.1111315252759</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I13" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>55.84763503481257</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K13" t="n">
-        <v>210.3999627570506</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L13" t="n">
-        <v>470.2970630371111</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M13" t="n">
-        <v>759.5611194776044</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N13" t="n">
-        <v>1040.399901871855</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O13" t="n">
-        <v>1299.960512198329</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P13" t="n">
-        <v>1505.635952447941</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q13" t="n">
-        <v>1571.163982250452</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1571.163982250452</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S13" t="n">
-        <v>1571.163982250452</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T13" t="n">
-        <v>1571.163982250452</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U13" t="n">
-        <v>1571.163982250452</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V13" t="n">
-        <v>1571.163982250452</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W13" t="n">
-        <v>1571.163982250452</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X13" t="n">
-        <v>1543.534340936018</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y13" t="n">
-        <v>1318.798642324783</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2001.236424545407</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C14" t="n">
-        <v>2001.236424545407</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D14" t="n">
-        <v>1596.772494638468</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E14" t="n">
-        <v>1182.432279155364</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F14" t="n">
-        <v>761.4018671090519</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G14" t="n">
-        <v>352.673583001884</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H14" t="n">
-        <v>41.76508562960205</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I14" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>41.76508562960205</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
-        <v>41.76508562960205</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L14" t="n">
-        <v>558.6080202959273</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M14" t="n">
-        <v>1054.568412147452</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N14" t="n">
-        <v>1571.411346813777</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O14" t="n">
-        <v>2088.254281480102</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P14" t="n">
-        <v>2088.254281480102</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q14" t="n">
-        <v>2088.254281480102</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R14" t="n">
-        <v>2088.254281480102</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>2088.254281480102</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T14" t="n">
-        <v>2088.254281480102</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U14" t="n">
-        <v>2001.236424545407</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V14" t="n">
-        <v>2001.236424545407</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W14" t="n">
-        <v>2001.236424545407</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X14" t="n">
-        <v>2001.236424545407</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y14" t="n">
-        <v>2001.236424545407</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>720.5959275161365</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C15" t="n">
-        <v>586.6008562650821</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D15" t="n">
-        <v>469.7036984844746</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E15" t="n">
-        <v>349.2108824768026</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F15" t="n">
-        <v>240.2510026593071</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G15" t="n">
-        <v>133.2608899736458</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H15" t="n">
-        <v>62.51367700936187</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I15" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>234.5779431922353</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K15" t="n">
-        <v>537.7254774811262</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L15" t="n">
-        <v>537.7254774811262</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M15" t="n">
-        <v>1054.568412147451</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N15" t="n">
-        <v>1571.411346813777</v>
+        <v>966.9017898022406</v>
       </c>
       <c r="O15" t="n">
-        <v>2088.254281480102</v>
+        <v>1670.858880348135</v>
       </c>
       <c r="P15" t="n">
-        <v>2088.254281480102</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q15" t="n">
-        <v>2088.254281480102</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R15" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S15" t="n">
-        <v>1980.264271594411</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T15" t="n">
-        <v>1820.922407781419</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U15" t="n">
-        <v>1623.571596919638</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V15" t="n">
-        <v>1409.860069912671</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W15" t="n">
-        <v>1196.626901649</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X15" t="n">
-        <v>1020.300919787893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y15" t="n">
-        <v>860.8989601517231</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1131.098935930739</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C16" t="n">
-        <v>960.0055634924552</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D16" t="n">
-        <v>800.5109188153651</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E16" t="n">
-        <v>639.6001036836846</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F16" t="n">
-        <v>474.9689777942758</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G16" t="n">
-        <v>307.7185867198193</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H16" t="n">
-        <v>158.1111315252759</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I16" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J16" t="n">
-        <v>55.84763503481257</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K16" t="n">
-        <v>210.3999627570506</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L16" t="n">
-        <v>470.2970630371111</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M16" t="n">
-        <v>759.5611194776044</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N16" t="n">
-        <v>1040.399901871855</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O16" t="n">
-        <v>1299.960512198329</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P16" t="n">
-        <v>1505.635952447941</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q16" t="n">
-        <v>1571.163982250452</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1571.163982250452</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S16" t="n">
-        <v>1571.163982250452</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T16" t="n">
-        <v>1571.163982250452</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U16" t="n">
-        <v>1571.163982250452</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V16" t="n">
-        <v>1571.163982250452</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W16" t="n">
-        <v>1571.163982250452</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X16" t="n">
-        <v>1543.534340936018</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y16" t="n">
-        <v>1318.798642324783</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1690.327927173125</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C17" t="n">
-        <v>1690.327927173125</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D17" t="n">
-        <v>1285.863997266186</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E17" t="n">
-        <v>871.5237817830823</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F17" t="n">
-        <v>450.4933697367699</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G17" t="n">
-        <v>41.76508562960205</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H17" t="n">
-        <v>41.76508562960205</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I17" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>41.76508562960205</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>41.76508562960205</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L17" t="n">
-        <v>558.6080202959273</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M17" t="n">
-        <v>1054.568412147452</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N17" t="n">
-        <v>1571.411346813777</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O17" t="n">
-        <v>2088.254281480102</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P17" t="n">
-        <v>2088.254281480102</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q17" t="n">
-        <v>2088.254281480102</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R17" t="n">
-        <v>2088.254281480102</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>2088.254281480102</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T17" t="n">
-        <v>2088.254281480102</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U17" t="n">
-        <v>2088.254281480102</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V17" t="n">
-        <v>2088.254281480102</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W17" t="n">
-        <v>2088.254281480102</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X17" t="n">
-        <v>2088.254281480102</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y17" t="n">
-        <v>1690.327927173125</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>720.5959275161365</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C18" t="n">
-        <v>586.6008562650821</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D18" t="n">
-        <v>469.7036984844746</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E18" t="n">
-        <v>349.2108824768026</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F18" t="n">
-        <v>240.2510026593071</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G18" t="n">
-        <v>133.2608899736458</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H18" t="n">
-        <v>62.51367700936187</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I18" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L18" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M18" t="n">
-        <v>558.6080202959273</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N18" t="n">
-        <v>1075.450954962253</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O18" t="n">
-        <v>1592.293889628578</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P18" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q18" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R18" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S18" t="n">
-        <v>1980.264271594411</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T18" t="n">
-        <v>1820.922407781419</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U18" t="n">
-        <v>1623.571596919638</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V18" t="n">
-        <v>1409.860069912671</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W18" t="n">
-        <v>1196.626901649</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X18" t="n">
-        <v>1020.300919787893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y18" t="n">
-        <v>860.8989601517231</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C19" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D19" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E19" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J19" t="n">
-        <v>55.84763503481257</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K19" t="n">
-        <v>210.3999627570506</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L19" t="n">
-        <v>470.2970630371111</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M19" t="n">
-        <v>759.5611194776044</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N19" t="n">
-        <v>1040.399901871855</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O19" t="n">
-        <v>1299.960512198329</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P19" t="n">
-        <v>1505.635952447941</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q19" t="n">
-        <v>1571.163982250452</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1571.163982250452</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1384.772214130362</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1145.223475107064</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U19" t="n">
-        <v>862.4253276531883</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V19" t="n">
-        <v>588.5395825927103</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W19" t="n">
-        <v>309.4699181015847</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X19" t="n">
-        <v>71.12605596126804</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y19" t="n">
-        <v>71.12605596126804</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2512.458907120301</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C20" t="n">
-        <v>2102.334316433571</v>
+        <v>1718.036387243042</v>
       </c>
       <c r="D20" t="n">
-        <v>1697.870386526632</v>
+        <v>1313.572457336103</v>
       </c>
       <c r="E20" t="n">
-        <v>1283.530171043528</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="F20" t="n">
-        <v>862.4997589972158</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G20" t="n">
-        <v>453.771474890048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H20" t="n">
-        <v>142.862977517766</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5829,25 +5831,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M21" t="n">
-        <v>562.1177108836107</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N21" t="n">
-        <v>1435.775802995229</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q21" t="n">
         <v>2139.732893541123</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3303.879360348573</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="C22" t="n">
-        <v>3132.785987910289</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="D22" t="n">
-        <v>3132.785987910289</v>
+        <v>480.5235499766414</v>
       </c>
       <c r="E22" t="n">
-        <v>3132.785987910289</v>
+        <v>319.6127348449609</v>
       </c>
       <c r="F22" t="n">
-        <v>3132.785987910289</v>
+        <v>319.6127348449609</v>
       </c>
       <c r="G22" t="n">
-        <v>3132.785987910289</v>
+        <v>319.6127348449609</v>
       </c>
       <c r="H22" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K22" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L22" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M22" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N22" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O22" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P22" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>4475.79311641105</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T22" t="n">
-        <v>4236.244377387751</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U22" t="n">
-        <v>3953.446229933875</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V22" t="n">
-        <v>3679.560484873397</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="W22" t="n">
-        <v>3400.490820382272</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="X22" t="n">
-        <v>3303.879360348573</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="Y22" t="n">
-        <v>3303.879360348573</v>
+        <v>640.0181946537314</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2102.237727455811</v>
+        <v>2324.444211508952</v>
       </c>
       <c r="C23" t="n">
-        <v>1730.338515182187</v>
+        <v>1914.319620822223</v>
       </c>
       <c r="D23" t="n">
-        <v>1325.874585275247</v>
+        <v>1509.855690915283</v>
       </c>
       <c r="E23" t="n">
-        <v>911.5343697921442</v>
+        <v>1095.51547543218</v>
       </c>
       <c r="F23" t="n">
-        <v>490.5039577458317</v>
+        <v>674.4850633858673</v>
       </c>
       <c r="G23" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H23" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6017,22 +6019,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.79927886809</v>
+        <v>3920.005762921231</v>
       </c>
       <c r="W23" t="n">
-        <v>3314.038978003258</v>
+        <v>3536.245462056399</v>
       </c>
       <c r="X23" t="n">
-        <v>2913.395580172211</v>
+        <v>3135.602064225352</v>
       </c>
       <c r="Y23" t="n">
-        <v>2512.458907120301</v>
+        <v>2734.665391173442</v>
       </c>
     </row>
     <row r="24">
@@ -6072,13 +6074,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>423.0977207349383</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="N24" t="n">
-        <v>1435.775802995229</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O24" t="n">
         <v>2139.732893541123</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>376.8401346607533</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="C25" t="n">
-        <v>376.8401346607533</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="D25" t="n">
-        <v>376.8401346607533</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="E25" t="n">
-        <v>376.8401346607533</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="F25" t="n">
-        <v>376.8401346607533</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G25" t="n">
-        <v>209.5897435862967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H25" t="n">
-        <v>209.5897435862967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I25" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J25" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K25" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L25" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M25" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N25" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O25" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P25" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q25" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R25" t="n">
-        <v>1622.642594311473</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S25" t="n">
-        <v>1622.642594311473</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T25" t="n">
-        <v>1622.642594311473</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="U25" t="n">
-        <v>1580.574811357953</v>
+        <v>3868.173511609275</v>
       </c>
       <c r="V25" t="n">
-        <v>1306.689066297475</v>
+        <v>3594.287766548796</v>
       </c>
       <c r="W25" t="n">
-        <v>1027.61940180635</v>
+        <v>3315.218102057671</v>
       </c>
       <c r="X25" t="n">
-        <v>789.275539666033</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="Y25" t="n">
-        <v>564.5398410547976</v>
+        <v>3132.785987910289</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C26" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D26" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E26" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F26" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G26" t="n">
-        <v>179.5954603735497</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H26" t="n">
         <v>179.5954603735497</v>
@@ -6263,13 +6265,13 @@
         <v>3697.79927886809</v>
       </c>
       <c r="W26" t="n">
-        <v>3314.038978003258</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="X26" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y26" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="27">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>957.0502867538141</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="C28" t="n">
-        <v>895.138129657802</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="D28" t="n">
-        <v>735.6434849807119</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="E28" t="n">
-        <v>574.7326698490315</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="F28" t="n">
-        <v>410.1015439596227</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G28" t="n">
-        <v>242.8511528851661</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H28" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I28" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J28" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K28" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L28" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M28" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N28" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O28" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P28" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q28" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R28" t="n">
-        <v>1622.642594311473</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S28" t="n">
-        <v>1622.642594311473</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T28" t="n">
-        <v>1383.093855288175</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="U28" t="n">
-        <v>1383.093855288175</v>
+        <v>3868.173511609275</v>
       </c>
       <c r="V28" t="n">
-        <v>1383.093855288175</v>
+        <v>3636.59135101265</v>
       </c>
       <c r="W28" t="n">
-        <v>1383.093855288175</v>
+        <v>3357.521686521525</v>
       </c>
       <c r="X28" t="n">
-        <v>1144.749993147859</v>
+        <v>3357.521686521525</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.749993147859</v>
+        <v>3132.785987910289</v>
       </c>
     </row>
     <row r="29">
@@ -6446,13 +6448,13 @@
         <v>1287.649206862142</v>
       </c>
       <c r="E29" t="n">
-        <v>899.2322418529996</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F29" t="n">
-        <v>899.2322418529996</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G29" t="n">
-        <v>490.5039577458317</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H29" t="n">
         <v>179.5954603735497</v>
@@ -6540,10 +6542,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
         <v>874.0699105066985</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4011.405617385543</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="C31" t="n">
-        <v>3840.31224494726</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="D31" t="n">
-        <v>3680.81760027017</v>
+        <v>586.0360297861687</v>
       </c>
       <c r="E31" t="n">
-        <v>3519.906785138489</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="F31" t="n">
-        <v>3355.27565924908</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G31" t="n">
-        <v>3282.393443104833</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K31" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L31" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M31" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N31" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O31" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P31" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>4662.18488453114</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T31" t="n">
-        <v>4662.18488453114</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U31" t="n">
-        <v>4662.18488453114</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V31" t="n">
-        <v>4662.18488453114</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="W31" t="n">
-        <v>4662.18488453114</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="X31" t="n">
-        <v>4423.841022390823</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="Y31" t="n">
-        <v>4199.105323779588</v>
+        <v>640.0181946537314</v>
       </c>
     </row>
     <row r="32">
@@ -6686,10 +6688,10 @@
         <v>873.3089913790386</v>
       </c>
       <c r="F32" t="n">
-        <v>452.2785793327262</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="G32" t="n">
-        <v>179.5954603735497</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H32" t="n">
         <v>179.5954603735497</v>
@@ -6783,10 +6785,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M33" t="n">
-        <v>562.1177108836107</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="N33" t="n">
         <v>1435.775802995229</v>
@@ -6832,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4222.119838211426</v>
+        <v>4164.476761201259</v>
       </c>
       <c r="C34" t="n">
         <v>4051.026465773143</v>
@@ -6880,28 +6882,28 @@
         <v>4662.18488453114</v>
       </c>
       <c r="R34" t="n">
-        <v>4662.18488453114</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S34" t="n">
-        <v>4662.18488453114</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="T34" t="n">
-        <v>4662.18488453114</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="U34" t="n">
-        <v>4662.18488453114</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="V34" t="n">
-        <v>4662.18488453114</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="W34" t="n">
-        <v>4662.18488453114</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="X34" t="n">
-        <v>4634.555243216706</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="Y34" t="n">
-        <v>4409.819544605471</v>
+        <v>4352.176467595304</v>
       </c>
     </row>
     <row r="35">
@@ -6962,10 +6964,10 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T35" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U35" t="n">
         <v>4494.590496051882</v>
@@ -7020,10 +7022,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L36" t="n">
-        <v>562.1177108836107</v>
+        <v>592.7987223006619</v>
       </c>
       <c r="M36" t="n">
-        <v>562.1177108836107</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="N36" t="n">
         <v>1435.775802995229</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>584.7425299376769</v>
+        <v>634.7312138321106</v>
       </c>
       <c r="C37" t="n">
-        <v>413.6491574993933</v>
+        <v>634.7312138321106</v>
       </c>
       <c r="D37" t="n">
-        <v>254.1545128223033</v>
+        <v>475.2365691550206</v>
       </c>
       <c r="E37" t="n">
-        <v>93.2436976906228</v>
+        <v>475.2365691550206</v>
       </c>
       <c r="F37" t="n">
-        <v>93.2436976906228</v>
+        <v>475.2365691550206</v>
       </c>
       <c r="G37" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H37" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I37" t="n">
         <v>93.2436976906228</v>
@@ -7126,19 +7128,19 @@
         <v>1622.642594311473</v>
       </c>
       <c r="U37" t="n">
-        <v>1622.642594311473</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V37" t="n">
-        <v>1514.591461574399</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="W37" t="n">
-        <v>1235.521797083273</v>
+        <v>1060.774782366472</v>
       </c>
       <c r="X37" t="n">
-        <v>997.1779349429565</v>
+        <v>822.430920226155</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.4422363317212</v>
+        <v>822.430920226155</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C38" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D38" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E38" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F38" t="n">
-        <v>899.2322418529996</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="G38" t="n">
         <v>490.5039577458317</v>
@@ -7172,10 +7174,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7208,16 +7210,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V38" t="n">
-        <v>3743.816268336454</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W38" t="n">
-        <v>3360.055967471622</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X38" t="n">
-        <v>2959.412569640574</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y38" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="39">
@@ -7260,10 +7262,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M39" t="n">
-        <v>562.1177108836107</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N39" t="n">
-        <v>1435.775802995229</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O39" t="n">
         <v>2139.732893541123</v>
@@ -7306,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>93.2436976906228</v>
+        <v>423.8317148059963</v>
       </c>
       <c r="C40" t="n">
-        <v>93.2436976906228</v>
+        <v>252.7383423677128</v>
       </c>
       <c r="D40" t="n">
         <v>93.2436976906228</v>
@@ -7354,28 +7356,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S40" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T40" t="n">
-        <v>1383.093855288175</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="U40" t="n">
-        <v>1100.295707834299</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="V40" t="n">
-        <v>826.4099627738212</v>
+        <v>1023.935391903097</v>
       </c>
       <c r="W40" t="n">
-        <v>744.0229648362191</v>
+        <v>744.865727411971</v>
       </c>
       <c r="X40" t="n">
-        <v>505.6791026959025</v>
+        <v>506.5218652716543</v>
       </c>
       <c r="Y40" t="n">
-        <v>280.9434040846672</v>
+        <v>506.5218652716543</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C41" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D41" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E41" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F41" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G41" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H41" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I41" t="n">
         <v>93.2436976906228</v>
@@ -7436,25 +7438,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T41" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U41" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V41" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W41" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X41" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y41" t="n">
-        <v>2549.191389976085</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="42">
@@ -7494,16 +7496,16 @@
         <v>549.0499539559215</v>
       </c>
       <c r="L42" t="n">
-        <v>549.0499539559215</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M42" t="n">
-        <v>1266.074801429505</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="N42" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O42" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P42" t="n">
         <v>2139.732893541123</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>93.2436976906228</v>
+        <v>3715.102367793559</v>
       </c>
       <c r="C43" t="n">
-        <v>93.2436976906228</v>
+        <v>3715.102367793559</v>
       </c>
       <c r="D43" t="n">
-        <v>93.2436976906228</v>
+        <v>3715.102367793559</v>
       </c>
       <c r="E43" t="n">
-        <v>93.2436976906228</v>
+        <v>3554.191552661878</v>
       </c>
       <c r="F43" t="n">
-        <v>93.2436976906228</v>
+        <v>3389.560426772469</v>
       </c>
       <c r="G43" t="n">
-        <v>93.2436976906228</v>
+        <v>3222.310035698013</v>
       </c>
       <c r="H43" t="n">
-        <v>93.2436976906228</v>
+        <v>3222.310035698013</v>
       </c>
       <c r="I43" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J43" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K43" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L43" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M43" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N43" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O43" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P43" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q43" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R43" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S43" t="n">
-        <v>1622.642594311473</v>
+        <v>4475.79311641105</v>
       </c>
       <c r="T43" t="n">
-        <v>1383.093855288175</v>
+        <v>4236.244377387751</v>
       </c>
       <c r="U43" t="n">
-        <v>1296.978374387823</v>
+        <v>3953.446229933875</v>
       </c>
       <c r="V43" t="n">
-        <v>1023.092629327345</v>
+        <v>3953.446229933875</v>
       </c>
       <c r="W43" t="n">
-        <v>744.0229648362191</v>
+        <v>3953.446229933875</v>
       </c>
       <c r="X43" t="n">
-        <v>505.6791026959025</v>
+        <v>3715.102367793559</v>
       </c>
       <c r="Y43" t="n">
-        <v>280.9434040846672</v>
+        <v>3715.102367793559</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>462.7954976759145</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C44" t="n">
-        <v>462.7954976759145</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D44" t="n">
-        <v>462.7954976759145</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E44" t="n">
-        <v>462.7954976759145</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F44" t="n">
-        <v>41.76508562960205</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G44" t="n">
-        <v>41.76508562960205</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H44" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I44" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>295.9505570973564</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>812.7934917636817</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L44" t="n">
-        <v>1014.011766457887</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M44" t="n">
-        <v>1530.854701124212</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N44" t="n">
-        <v>2047.697635790537</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O44" t="n">
-        <v>2047.697635790537</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P44" t="n">
-        <v>2047.697635790537</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q44" t="n">
-        <v>2047.697635790537</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R44" t="n">
-        <v>2088.254281480102</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>2088.254281480102</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T44" t="n">
-        <v>1914.480867776773</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U44" t="n">
-        <v>1657.420376036283</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V44" t="n">
-        <v>1657.420376036283</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W44" t="n">
-        <v>1273.660075171451</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X44" t="n">
-        <v>873.0166773404039</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y44" t="n">
-        <v>873.0166773404039</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>720.5959275161366</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C45" t="n">
-        <v>586.6008562650824</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D45" t="n">
-        <v>469.7036984844747</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E45" t="n">
-        <v>349.2108824768027</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F45" t="n">
-        <v>240.2510026593072</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G45" t="n">
-        <v>133.260889973646</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H45" t="n">
-        <v>62.51367700936203</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I45" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>41.76508562960205</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>41.76508562960205</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>558.6080202959273</v>
+        <v>1056.371818948615</v>
       </c>
       <c r="M45" t="n">
-        <v>1075.450954962253</v>
+        <v>1056.371818948615</v>
       </c>
       <c r="N45" t="n">
-        <v>1592.293889628578</v>
+        <v>1056.371818948615</v>
       </c>
       <c r="O45" t="n">
-        <v>2088.254281480102</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P45" t="n">
-        <v>2088.254281480102</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q45" t="n">
-        <v>2088.254281480102</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R45" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S45" t="n">
-        <v>1980.264271594411</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T45" t="n">
-        <v>1820.922407781419</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U45" t="n">
-        <v>1623.571596919638</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V45" t="n">
-        <v>1409.860069912672</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W45" t="n">
-        <v>1196.626901649001</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X45" t="n">
-        <v>1020.300919787893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y45" t="n">
-        <v>860.8989601517233</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>777.1526093285881</v>
+        <v>916.6240469015422</v>
       </c>
       <c r="C46" t="n">
-        <v>777.1526093285881</v>
+        <v>745.5306744632587</v>
       </c>
       <c r="D46" t="n">
-        <v>777.1526093285881</v>
+        <v>586.0360297861687</v>
       </c>
       <c r="E46" t="n">
-        <v>639.6001036836846</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="F46" t="n">
-        <v>474.9689777942758</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G46" t="n">
-        <v>307.7185867198193</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H46" t="n">
-        <v>158.1111315252759</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I46" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>55.84763503481257</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K46" t="n">
-        <v>210.3999627570506</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L46" t="n">
-        <v>470.2970630371111</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M46" t="n">
-        <v>759.5611194776044</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N46" t="n">
-        <v>1040.399901871855</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
-        <v>1299.960512198329</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>1505.635952447941</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q46" t="n">
-        <v>1571.163982250452</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>1485.891263925851</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S46" t="n">
-        <v>1299.499495805762</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T46" t="n">
-        <v>1059.950756782464</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U46" t="n">
-        <v>777.1526093285881</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V46" t="n">
-        <v>777.1526093285881</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W46" t="n">
-        <v>777.1526093285881</v>
+        <v>1567.403314047138</v>
       </c>
       <c r="X46" t="n">
-        <v>777.1526093285881</v>
+        <v>1329.059451906822</v>
       </c>
       <c r="Y46" t="n">
-        <v>777.1526093285881</v>
+        <v>1104.323753295587</v>
       </c>
     </row>
   </sheetData>
@@ -7982,25 +7984,25 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>617.5489684328704</v>
+        <v>555.4891820648243</v>
       </c>
       <c r="M2" t="n">
-        <v>594.2603172363632</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
         <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8057,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
         <v>55.82578278461539</v>
@@ -8070,10 +8072,10 @@
         <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
-        <v>532.6464328093261</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>201.8514806265821</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
@@ -8216,7 +8218,7 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
         <v>617.5489684328704</v>
@@ -8228,16 +8230,16 @@
         <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>228.7885022587807</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>270.21439869122</v>
       </c>
       <c r="Q5" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,22 +8294,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>91.92897171537922</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637755</v>
+        <v>421.0562344946766</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
         <v>576.3232053728293</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>275.0827150970472</v>
       </c>
       <c r="L8" t="n">
-        <v>617.5489684328704</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>594.2603172363632</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266449</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>615.7129336509097</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,25 +8531,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808746</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M9" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O9" t="n">
-        <v>425.6143201009266</v>
+        <v>574.6635313430239</v>
       </c>
       <c r="P9" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
         <v>56.69261850483872</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
-        <v>617.5489684328704</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
-        <v>615.3537948270711</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
-        <v>614.9758611266449</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
-        <v>594.1598684051008</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,22 +8771,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>579.627854108443</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N12" t="n">
-        <v>575.2569637637755</v>
+        <v>557.7944283533855</v>
       </c>
       <c r="O12" t="n">
-        <v>579.8150493700256</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
-        <v>94.81936791818303</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
-        <v>617.5489684328704</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
-        <v>594.2603172363632</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>614.9758611266449</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
-        <v>615.2533459958087</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,31 +9005,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
-        <v>362.0354133794547</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>575.2569637637755</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
-        <v>579.8150493700256</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>144.6334018173235</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L17" t="n">
-        <v>617.5489684328704</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M17" t="n">
-        <v>594.2603172363632</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N17" t="n">
-        <v>614.9758611266449</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O17" t="n">
-        <v>615.2533459958087</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P17" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q17" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9249,16 +9251,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>579.627854108443</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N18" t="n">
-        <v>575.2569637637755</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O18" t="n">
-        <v>579.8150493700256</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P18" t="n">
-        <v>555.229727782121</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
         <v>56.69261850483872</v>
@@ -9477,28 +9479,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>548.9835243030855</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
         <v>59.00019910540541</v>
@@ -9720,16 +9722,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>389.300405673794</v>
       </c>
       <c r="M24" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N24" t="n">
-        <v>557.7944283533855</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
@@ -10188,13 +10190,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>384.4175102257753</v>
+        <v>189.6570480412973</v>
       </c>
       <c r="M30" t="n">
         <v>57.56428373841742</v>
@@ -10431,13 +10433,13 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>531.1743980747688</v>
+        <v>745.8914891781321</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
         <v>768.8192472281761</v>
@@ -10668,13 +10670,13 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>529.7246381472005</v>
+        <v>560.7155587704844</v>
       </c>
       <c r="M36" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
         <v>768.8192472281761</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
         <v>632.7318453389136</v>
@@ -10908,13 +10910,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>531.1743980747688</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N39" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P39" t="n">
         <v>54.25963500280375</v>
@@ -11081,7 +11083,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,19 +11144,19 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
-        <v>781.8318064390068</v>
+        <v>429.1692081600164</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
         <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
         <v>56.69261850483872</v>
@@ -11297,25 +11299,25 @@
         <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>611.1999600432426</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
-        <v>298.736180582244</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>615.3537948270711</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>614.9758611266449</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
         <v>128.2784515920617</v>
@@ -11373,31 +11375,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>578.1780941808746</v>
+        <v>373.8003899018191</v>
       </c>
       <c r="M45" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>558.7215717793176</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P45" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22550,13 +22552,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>1.375113957950589</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>4.506424269048352</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22613,7 +22615,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,28 +22704,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y4" t="n">
-        <v>93.31312169923908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22784,25 +22786,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>13.55422061770378</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
@@ -22841,7 +22843,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>68.4875795955989</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
@@ -22939,22 +22941,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
@@ -22987,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>34.29020285036032</v>
+        <v>41.88054861921438</v>
       </c>
       <c r="X7" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23018,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>357.3419246071863</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,16 +23071,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>184.6134679555875</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23176,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23224,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>55.35263051300493</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23255,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23273,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>223.0676163851325</v>
       </c>
       <c r="I11" t="n">
         <v>85.48824505609757</v>
@@ -23309,22 +23311,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.980215557483461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,22 +23469,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>208.6070786176243</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="14">
@@ -23492,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23513,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,19 +23551,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>168.3422084577368</v>
+        <v>88.57144222861982</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,19 +23706,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>208.6070786176243</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23729,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23747,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23786,19 +23788,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>88.57144222861982</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>2.980215557483461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>156.7553487017546</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
@@ -23938,10 +23940,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23966,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>25.66401796922139</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23978,7 +23980,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -23987,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>36.36515802722579</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24127,13 +24129,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>162.9848146305146</v>
@@ -24142,10 +24144,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>39.18861929652036</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24187,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>140.3150780855518</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
         <v>222.4883416251229</v>
@@ -24206,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>37.84312462897458</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24218,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>404.6410012660961</v>
+        <v>137.0114616263633</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24257,7 +24259,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
@@ -24376,13 +24378,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>238.3230608553525</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>55.35263051300575</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24455,10 +24457,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>134.6847134965114</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24503,10 +24505,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>62.56142803888764</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24598,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>108.0894031888486</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
         <v>115.1825854367171</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>41.88054861921515</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24686,16 +24688,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>25.66401796922133</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>134.6847134965114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>104.457355011432</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>93.42449318090684</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
         <v>115.1825854367171</v>
@@ -24886,25 +24888,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -24926,13 +24928,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>134.6847134965114</v>
+        <v>25.66401796922122</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -25075,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>57.0666462400653</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>184.5278504388888</v>
@@ -25138,7 +25140,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>208.6070786176241</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25202,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>222.4997066824603</v>
+        <v>88.57144222861982</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25312,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>50.69891049327325</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,10 +25368,10 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>164.1762662001699</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25400,10 +25402,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>37.84312462897441</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25448,7 +25450,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>45.55681957367995</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25457,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>103.9594603691025</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>184.5278504388888</v>
@@ -25603,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>194.7158398879882</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25646,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25694,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>36.36515802722602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
@@ -25792,19 +25794,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>26.55377812687109</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,25 +25836,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>194.7158398879884</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25865,22 +25867,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>85.48824505609757</v>
@@ -25916,13 +25918,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>47.94873964631341</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25931,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>23.12472639190918</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>221.5920803845231</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>513843.2501050775</v>
+        <v>513843.2501050773</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>513843.2501050776</v>
+        <v>513843.2501050773</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>513843.2501050775</v>
+        <v>744613.8921890821</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>513843.2501050773</v>
+        <v>782296.2147749175</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>513843.2501050775</v>
+        <v>782296.2147749176</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>513843.2501050775</v>
+        <v>782296.2147749176</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>782296.2147749175</v>
+        <v>782296.2147749172</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>782296.2147749177</v>
+        <v>782296.2147749173</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>782296.2147749173</v>
+        <v>782296.2147749175</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>782296.2147749175</v>
+        <v>782296.2147749171</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>782296.2147749175</v>
+        <v>782296.2147749176</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>782296.2147749176</v>
+        <v>782296.2147749173</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>513843.2501050775</v>
+        <v>782296.2147749175</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>161720.1620581895</v>
+        <v>161720.1620581894</v>
       </c>
       <c r="C2" t="n">
-        <v>161720.1620581895</v>
+        <v>161720.1620581894</v>
       </c>
       <c r="D2" t="n">
-        <v>161720.1620581895</v>
+        <v>234342.8728032615</v>
       </c>
       <c r="E2" t="n">
-        <v>161720.1620581895</v>
+        <v>246201.3674048298</v>
       </c>
       <c r="F2" t="n">
-        <v>161720.1620581895</v>
+        <v>246201.3674048298</v>
       </c>
       <c r="G2" t="n">
-        <v>161720.1620581895</v>
+        <v>246201.3674048298</v>
       </c>
       <c r="H2" t="n">
         <v>246201.3674048298</v>
@@ -26338,13 +26340,13 @@
         <v>246201.3674048298</v>
       </c>
       <c r="K2" t="n">
-        <v>246201.3674048298</v>
+        <v>246201.3674048299</v>
       </c>
       <c r="L2" t="n">
         <v>246201.3674048297</v>
       </c>
       <c r="M2" t="n">
-        <v>246201.3674048299</v>
+        <v>246201.3674048298</v>
       </c>
       <c r="N2" t="n">
         <v>246201.3674048298</v>
@@ -26353,7 +26355,7 @@
         <v>246201.3674048298</v>
       </c>
       <c r="P2" t="n">
-        <v>161720.1620581895</v>
+        <v>246201.3674048298</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>171827.4689100685</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>26968.95418093424</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>173617.4105196494</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26393,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>139999.3108647527</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>22509.26477404744</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,16 +26423,16 @@
         <v>10090.76744434242</v>
       </c>
       <c r="D4" t="n">
-        <v>10090.76744434242</v>
+        <v>14710.94866173179</v>
       </c>
       <c r="E4" t="n">
-        <v>10090.76744434242</v>
+        <v>15465.37373706398</v>
       </c>
       <c r="F4" t="n">
-        <v>10090.76744434242</v>
+        <v>15465.37373706398</v>
       </c>
       <c r="G4" t="n">
-        <v>10090.76744434242</v>
+        <v>15465.37373706398</v>
       </c>
       <c r="H4" t="n">
         <v>15465.37373706398</v>
@@ -26457,7 +26459,7 @@
         <v>15465.37373706398</v>
       </c>
       <c r="P4" t="n">
-        <v>10090.76744434242</v>
+        <v>15465.37373706398</v>
       </c>
     </row>
     <row r="5">
@@ -26473,16 +26475,16 @@
         <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>65369.06507849755</v>
+        <v>99001.07135520026</v>
       </c>
       <c r="E5" t="n">
-        <v>31741.46507849755</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="F5" t="n">
-        <v>31741.46507849755</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="G5" t="n">
-        <v>31741.46507849755</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="H5" t="n">
         <v>70865.21024487332</v>
@@ -26509,7 +26511,7 @@
         <v>70865.21024487332</v>
       </c>
       <c r="P5" t="n">
-        <v>31741.46507849755</v>
+        <v>70865.21024487332</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-88695.18035776459</v>
+        <v>-88695.18035776462</v>
       </c>
       <c r="C6" t="n">
-        <v>86260.32953534951</v>
+        <v>86260.32953534945</v>
       </c>
       <c r="D6" t="n">
-        <v>86260.32953534951</v>
+        <v>-51196.61612373905</v>
       </c>
       <c r="E6" t="n">
-        <v>119887.9295353495</v>
+        <v>132901.8292419582</v>
       </c>
       <c r="F6" t="n">
-        <v>119887.9295353495</v>
+        <v>159870.7834228925</v>
       </c>
       <c r="G6" t="n">
-        <v>119887.9295353495</v>
+        <v>159870.7834228925</v>
       </c>
       <c r="H6" t="n">
-        <v>-13746.62709675686</v>
+        <v>159870.7834228925</v>
       </c>
       <c r="I6" t="n">
-        <v>159870.7834228924</v>
+        <v>159870.7834228925</v>
       </c>
       <c r="J6" t="n">
-        <v>23275.98261699754</v>
+        <v>23275.9826169975</v>
       </c>
       <c r="K6" t="n">
+        <v>159870.7834228926</v>
+      </c>
+      <c r="L6" t="n">
+        <v>19871.47255813968</v>
+      </c>
+      <c r="M6" t="n">
+        <v>137361.5186488451</v>
+      </c>
+      <c r="N6" t="n">
         <v>159870.7834228925</v>
       </c>
-      <c r="L6" t="n">
-        <v>159870.7834228923</v>
-      </c>
-      <c r="M6" t="n">
-        <v>159870.7834228926</v>
-      </c>
-      <c r="N6" t="n">
-        <v>159870.7834228924</v>
-      </c>
       <c r="O6" t="n">
-        <v>159870.7834228924</v>
+        <v>159870.7834228925</v>
       </c>
       <c r="P6" t="n">
-        <v>119887.9295353495</v>
+        <v>159870.7834228925</v>
       </c>
     </row>
   </sheetData>
@@ -26793,16 +26795,16 @@
         <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>522.0635703700256</v>
+        <v>1075.22156834211</v>
       </c>
       <c r="E4" t="n">
-        <v>522.0635703700256</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="F4" t="n">
-        <v>522.0635703700256</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="G4" t="n">
-        <v>522.0635703700256</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="H4" t="n">
         <v>1165.546221132785</v>
@@ -26829,7 +26831,7 @@
         <v>1165.546221132785</v>
       </c>
       <c r="P4" t="n">
-        <v>522.0635703700256</v>
+        <v>1165.546221132785</v>
       </c>
     </row>
   </sheetData>
@@ -27015,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,7 +27029,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>643.4826507627594</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27039,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>643.4826507627594</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34702,25 +34704,25 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>460.0037840019794</v>
+      </c>
+      <c r="M2" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M2" t="n">
-        <v>500.9700927793178</v>
-      </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34790,10 +34792,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O3" t="n">
-        <v>474.8949538093261</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>147.5918456237784</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
@@ -34936,7 +34938,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>522.0635703700256</v>
@@ -34948,16 +34950,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>135.5987266329976</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>176.5650354103359</v>
       </c>
       <c r="Q5" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>40.55973291537921</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>522.0635703700256</v>
+        <v>367.8628411009266</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>522.0635703700256</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>185.9463254238301</v>
       </c>
       <c r="L8" t="n">
-        <v>522.0635703700256</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>500.9700927793178</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>522.0635703700256</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>522.0635703700256</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>522.0635703700256</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O9" t="n">
-        <v>367.8628411009266</v>
+        <v>516.9120523430239</v>
       </c>
       <c r="P9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
-        <v>522.0635703700256</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
-        <v>522.0635703700256</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
-        <v>522.0635703700256</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
-        <v>500.9700927793177</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>522.0635703700256</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N12" t="n">
-        <v>522.0635703700256</v>
+        <v>504.6010349596355</v>
       </c>
       <c r="O12" t="n">
-        <v>522.0635703700256</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
-        <v>40.55973291537929</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
-        <v>522.0635703700256</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
-        <v>500.9700927793178</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>522.0635703700256</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
-        <v>522.0635703700256</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>306.2096305948393</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>522.0635703700256</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
-        <v>522.0635703700256</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>90.3737668145198</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L17" t="n">
-        <v>522.0635703700256</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M17" t="n">
-        <v>500.9700927793178</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N17" t="n">
-        <v>522.0635703700256</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O17" t="n">
-        <v>522.0635703700256</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,16 +35971,16 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>522.0635703700256</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N18" t="n">
-        <v>522.0635703700256</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O18" t="n">
-        <v>522.0635703700256</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P18" t="n">
-        <v>500.9700927793172</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36440,16 +36442,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="M24" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N24" t="n">
-        <v>504.6010349596355</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O24" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36908,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>328.3029864149263</v>
+        <v>133.5425242304483</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -37151,13 +37153,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
-        <v>473.6101143363514</v>
+        <v>688.3272054397147</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>711.0677682281761</v>
@@ -37388,13 +37390,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>473.6101143363514</v>
+        <v>504.6010349596355</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>711.0677682281761</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
         <v>543.5954556656965</v>
@@ -37628,13 +37630,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>473.6101143363514</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N39" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O39" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37801,7 +37803,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,19 +37864,19 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M42" t="n">
-        <v>724.2675227005893</v>
+        <v>371.6049244215989</v>
       </c>
       <c r="N42" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38017,25 +38019,25 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>522.0635703700256</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
-        <v>203.2507825193992</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>522.0635703700256</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>522.0635703700256</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
         <v>40.9663087773382</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>522.0635703700256</v>
+        <v>317.6858660909701</v>
       </c>
       <c r="M45" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>500.9700927793177</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_17.xlsx
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5301029.811029742</v>
+        <v>5301029.81102974</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8484367.057907989</v>
+        <v>8484367.057907987</v>
       </c>
     </row>
     <row r="11">
@@ -661,19 +661,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>365.0890415244028</v>
       </c>
       <c r="F2" t="n">
-        <v>412.3136836568009</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -822,22 +822,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>153.0251390105127</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>27.35334490128912</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>242.5166083752615</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>277.8515995212852</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1104,22 +1104,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>68.60514786915827</v>
       </c>
       <c r="V7" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>234.398419227</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -1141,7 +1141,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>97.4482184538746</v>
       </c>
       <c r="F8" t="n">
         <v>416.8201079258493</v>
@@ -1186,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>161.7257111612966</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>27.35334490128912</v>
+        <v>180.6077930059086</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1387,10 +1387,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>84.73179601342665</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y13" t="n">
-        <v>213.5952110672386</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1624,10 +1624,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>304.7162152260364</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>165.9184445944652</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>228.2601210751805</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>165.421695385058</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>85.48824505609757</v>
@@ -1897,10 +1897,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.2279701699385</v>
       </c>
       <c r="U17" t="n">
-        <v>165.9184445944652</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>81.56312795822615</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>228.2601210751805</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
         <v>279.9701659793371</v>
@@ -2064,7 +2064,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
@@ -2083,7 +2083,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>380.3593268106412</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
@@ -2092,10 +2092,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>378.9769832968749</v>
       </c>
       <c r="G20" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>307.7994123985592</v>
@@ -2244,19 +2244,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>70.11854311890808</v>
       </c>
       <c r="E22" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>108.9227613460776</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
         <v>115.1825854367171</v>
@@ -2295,7 +2295,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
@@ -2332,7 +2332,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>267.6295396397329</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
         <v>307.7994123985592</v>
@@ -2371,16 +2371,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>369.2659961340943</v>
       </c>
       <c r="X23" t="n">
         <v>396.636963852737</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>110.482758814076</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>180.6077930059077</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2569,13 +2569,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>404.6410012660961</v>
+        <v>355.4445328256822</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2617,10 +2617,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>334.0755358138493</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
         <v>396.9273063213908</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>229.2663389906581</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y28" t="n">
         <v>222.4883416251229</v>
@@ -2803,10 +2803,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>282.1353944293379</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>404.6410012660961</v>
+        <v>269.9562877695847</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>148.0772376304398</v>
       </c>
       <c r="D31" t="n">
-        <v>53.44234321888706</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
         <v>159.3017069803637</v>
@@ -2967,10 +2967,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
@@ -3040,10 +3040,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>378.9769832968749</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
         <v>307.7994123985592</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>257.7677368882639</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -3189,7 +3189,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>112.3157924738354</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>27.35334490128935</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -3426,25 +3426,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>29.28874095845251</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>114.8789766704388</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3514,16 +3514,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>378.9769832968749</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,10 +3556,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>117.4784251967216</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>81.86324896100147</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
@@ -3729,7 +3729,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="U41" t="n">
-        <v>251.4066896505621</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3906,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>88.62880730984601</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>237.1532516330649</v>
@@ -3957,16 +3957,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>213.595211067239</v>
       </c>
     </row>
     <row r="44">
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>54.68688746169129</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1277.096428763703</v>
+        <v>815.0058251571504</v>
       </c>
       <c r="C2" t="n">
-        <v>866.9718380769729</v>
+        <v>815.0058251571504</v>
       </c>
       <c r="D2" t="n">
-        <v>866.9718380769729</v>
+        <v>410.5418952502109</v>
       </c>
       <c r="E2" t="n">
-        <v>866.9718380769729</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F2" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G2" t="n">
         <v>41.76508562960205</v>
@@ -4333,25 +4333,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>41.76508562960205</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="L2" t="n">
-        <v>497.1688317915616</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M2" t="n">
-        <v>1014.011766457887</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N2" t="n">
-        <v>1530.854701124212</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O2" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P2" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q2" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
@@ -4360,22 +4360,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U2" t="n">
-        <v>2088.254281480102</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V2" t="n">
-        <v>2088.254281480102</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="W2" t="n">
-        <v>2088.254281480102</v>
+        <v>1225.22700482164</v>
       </c>
       <c r="X2" t="n">
-        <v>2088.254281480102</v>
+        <v>1225.22700482164</v>
       </c>
       <c r="Y2" t="n">
-        <v>1687.317608428192</v>
+        <v>1225.22700482164</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G3" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960225</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960225</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K3" t="n">
-        <v>41.76508562960225</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L3" t="n">
-        <v>41.76508562960225</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="M3" t="n">
-        <v>558.6080202959275</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="N3" t="n">
-        <v>1075.450954962253</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="O3" t="n">
-        <v>1592.293889628578</v>
+        <v>1785.106747191211</v>
       </c>
       <c r="P3" t="n">
-        <v>1738.409816796119</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4448,13 +4448,13 @@
         <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X3" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1131.098935930739</v>
+        <v>212.8584580678856</v>
       </c>
       <c r="C4" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D4" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E4" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F4" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4521,19 +4521,19 @@
         <v>1571.163982250452</v>
       </c>
       <c r="U4" t="n">
-        <v>1571.163982250452</v>
+        <v>1416.593134765086</v>
       </c>
       <c r="V4" t="n">
-        <v>1571.163982250452</v>
+        <v>1142.707389704608</v>
       </c>
       <c r="W4" t="n">
-        <v>1571.163982250452</v>
+        <v>863.6377252134819</v>
       </c>
       <c r="X4" t="n">
-        <v>1543.534340936018</v>
+        <v>625.2938630731653</v>
       </c>
       <c r="Y4" t="n">
-        <v>1318.798642324783</v>
+        <v>400.5581644619299</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1262.093845275082</v>
+        <v>286.7313567157248</v>
       </c>
       <c r="C5" t="n">
-        <v>1262.093845275082</v>
+        <v>286.7313567157248</v>
       </c>
       <c r="D5" t="n">
-        <v>1262.093845275082</v>
+        <v>286.7313567157248</v>
       </c>
       <c r="E5" t="n">
-        <v>847.7536297919787</v>
+        <v>286.7313567157248</v>
       </c>
       <c r="F5" t="n">
-        <v>847.7536297919787</v>
+        <v>286.7313567157248</v>
       </c>
       <c r="G5" t="n">
-        <v>439.0253456848109</v>
+        <v>286.7313567157248</v>
       </c>
       <c r="H5" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
@@ -4570,22 +4570,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>41.76508562960205</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="L5" t="n">
-        <v>558.6080202959273</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="M5" t="n">
-        <v>1075.450954962253</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N5" t="n">
-        <v>1075.450954962253</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O5" t="n">
-        <v>1592.293889628578</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P5" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q5" t="n">
         <v>2088.254281480102</v>
@@ -4594,25 +4594,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U5" t="n">
-        <v>1952.973206274203</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="V5" t="n">
-        <v>1672.315024939571</v>
+        <v>1481.356235076093</v>
       </c>
       <c r="W5" t="n">
-        <v>1672.315024939571</v>
+        <v>1097.595934211262</v>
       </c>
       <c r="X5" t="n">
-        <v>1672.315024939571</v>
+        <v>696.9525363802143</v>
       </c>
       <c r="Y5" t="n">
-        <v>1672.315024939571</v>
+        <v>696.9525363802143</v>
       </c>
     </row>
     <row r="6">
@@ -4646,22 +4646,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>690.384199457534</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L6" t="n">
-        <v>1207.227134123859</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M6" t="n">
-        <v>1207.227134123859</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N6" t="n">
-        <v>1571.411346813777</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O6" t="n">
-        <v>1571.411346813777</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P6" t="n">
         <v>2088.254281480102</v>
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.76508562960205</v>
+        <v>212.8584580678856</v>
       </c>
       <c r="C7" t="n">
         <v>41.76508562960205</v>
@@ -4752,25 +4752,25 @@
         <v>1485.891263925851</v>
       </c>
       <c r="S7" t="n">
-        <v>1299.499495805762</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T7" t="n">
-        <v>1059.950756782464</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U7" t="n">
-        <v>777.1526093285881</v>
+        <v>1416.593134765086</v>
       </c>
       <c r="V7" t="n">
-        <v>503.2668642681101</v>
+        <v>1142.707389704608</v>
       </c>
       <c r="W7" t="n">
-        <v>266.5007842408373</v>
+        <v>863.6377252134819</v>
       </c>
       <c r="X7" t="n">
-        <v>266.5007842408373</v>
+        <v>625.2938630731653</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.76508562960205</v>
+        <v>400.5581644619299</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2541.96541775283</v>
+        <v>2226.05774616253</v>
       </c>
       <c r="C8" t="n">
-        <v>2131.840827066101</v>
+        <v>1815.9331554758</v>
       </c>
       <c r="D8" t="n">
-        <v>1727.376897159161</v>
+        <v>1411.469225568861</v>
       </c>
       <c r="E8" t="n">
         <v>1313.036681676058</v>
@@ -4801,55 +4801,55 @@
         <v>172.3694881502956</v>
       </c>
       <c r="I8" t="n">
-        <v>86.01772546736876</v>
+        <v>86.01772546736878</v>
       </c>
       <c r="J8" t="n">
-        <v>340.2031969351231</v>
+        <v>86.01772546736878</v>
       </c>
       <c r="K8" t="n">
-        <v>524.2900591047148</v>
+        <v>624.1772265764083</v>
       </c>
       <c r="L8" t="n">
-        <v>1236.881458916953</v>
+        <v>1277.438104606519</v>
       </c>
       <c r="M8" t="n">
-        <v>2013.200049908707</v>
+        <v>2053.756695598272</v>
       </c>
       <c r="N8" t="n">
-        <v>2766.381066547325</v>
+        <v>2806.937712236891</v>
       </c>
       <c r="O8" t="n">
-        <v>3410.01192296443</v>
+        <v>3450.568568653995</v>
       </c>
       <c r="P8" t="n">
-        <v>3939.168620883581</v>
+        <v>3979.725266573147</v>
       </c>
       <c r="Q8" t="n">
-        <v>4260.329627678873</v>
+        <v>4300.886273368439</v>
       </c>
       <c r="R8" t="n">
-        <v>4300.886273368438</v>
+        <v>4300.886273368439</v>
       </c>
       <c r="S8" t="n">
-        <v>4300.886273368438</v>
+        <v>4300.886273368439</v>
       </c>
       <c r="T8" t="n">
-        <v>4300.886273368438</v>
+        <v>4078.679789315298</v>
       </c>
       <c r="U8" t="n">
-        <v>4300.886273368438</v>
+        <v>3821.619297574808</v>
       </c>
       <c r="V8" t="n">
-        <v>4137.526969165108</v>
+        <v>3821.619297574808</v>
       </c>
       <c r="W8" t="n">
-        <v>3753.766668300277</v>
+        <v>3437.858996709977</v>
       </c>
       <c r="X8" t="n">
-        <v>3353.12327046923</v>
+        <v>3037.215598878929</v>
       </c>
       <c r="Y8" t="n">
-        <v>2952.18659741732</v>
+        <v>2636.278925827019</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>764.848567353903</v>
+        <v>764.8485673539033</v>
       </c>
       <c r="C9" t="n">
-        <v>630.8534961028488</v>
+        <v>630.8534961028489</v>
       </c>
       <c r="D9" t="n">
-        <v>513.9563383222412</v>
+        <v>513.9563383222413</v>
       </c>
       <c r="E9" t="n">
-        <v>393.4635223145692</v>
+        <v>393.4635223145693</v>
       </c>
       <c r="F9" t="n">
-        <v>284.5036424970738</v>
+        <v>284.5036424970739</v>
       </c>
       <c r="G9" t="n">
-        <v>177.5135298114125</v>
+        <v>177.5135298114126</v>
       </c>
       <c r="H9" t="n">
         <v>106.7663168471286</v>
       </c>
       <c r="I9" t="n">
-        <v>86.01772546736876</v>
+        <v>86.01772546736878</v>
       </c>
       <c r="J9" t="n">
-        <v>86.01772546736876</v>
+        <v>86.01772546736878</v>
       </c>
       <c r="K9" t="n">
-        <v>86.01772546736876</v>
+        <v>86.01772546736878</v>
       </c>
       <c r="L9" t="n">
-        <v>747.105897386657</v>
+        <v>86.01772546736878</v>
       </c>
       <c r="M9" t="n">
-        <v>747.105897386657</v>
+        <v>86.01772546736878</v>
       </c>
       <c r="N9" t="n">
-        <v>1620.763989498275</v>
+        <v>959.6758175789867</v>
       </c>
       <c r="O9" t="n">
-        <v>2132.506921317869</v>
+        <v>1220.956564145356</v>
       </c>
       <c r="P9" t="n">
-        <v>2132.506921317869</v>
+        <v>1782.662456633886</v>
       </c>
       <c r="Q9" t="n">
         <v>2132.506921317869</v>
@@ -4910,16 +4910,16 @@
         <v>2132.506921317869</v>
       </c>
       <c r="S9" t="n">
-        <v>2024.516911432177</v>
+        <v>2024.516911432178</v>
       </c>
       <c r="T9" t="n">
         <v>1865.175047619186</v>
       </c>
       <c r="U9" t="n">
-        <v>1667.824236757404</v>
+        <v>1667.824236757405</v>
       </c>
       <c r="V9" t="n">
-        <v>1454.112709750438</v>
+        <v>1454.112709750439</v>
       </c>
       <c r="W9" t="n">
         <v>1240.879541486767</v>
@@ -4928,7 +4928,7 @@
         <v>1064.55355962566</v>
       </c>
       <c r="Y9" t="n">
-        <v>905.1515999894897</v>
+        <v>905.1515999894899</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1175.351575768505</v>
+        <v>86.01772546736878</v>
       </c>
       <c r="C10" t="n">
-        <v>1004.258203330222</v>
+        <v>86.01772546736878</v>
       </c>
       <c r="D10" t="n">
-        <v>844.7635586531319</v>
+        <v>86.01772546736878</v>
       </c>
       <c r="E10" t="n">
-        <v>683.8527435214513</v>
+        <v>86.01772546736878</v>
       </c>
       <c r="F10" t="n">
-        <v>519.2216176320426</v>
+        <v>86.01772546736878</v>
       </c>
       <c r="G10" t="n">
-        <v>351.971226557586</v>
+        <v>86.01772546736878</v>
       </c>
       <c r="H10" t="n">
-        <v>202.3637713630426</v>
+        <v>86.01772546736878</v>
       </c>
       <c r="I10" t="n">
-        <v>86.01772546736876</v>
+        <v>86.01772546736878</v>
       </c>
       <c r="J10" t="n">
         <v>100.1002748725793</v>
@@ -4986,28 +4986,28 @@
         <v>1615.416622088219</v>
       </c>
       <c r="R10" t="n">
-        <v>1615.416622088219</v>
+        <v>1530.143903763618</v>
       </c>
       <c r="S10" t="n">
-        <v>1615.416622088219</v>
+        <v>1343.752135643529</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.416622088219</v>
+        <v>1104.203396620231</v>
       </c>
       <c r="U10" t="n">
-        <v>1615.416622088219</v>
+        <v>821.4052491663549</v>
       </c>
       <c r="V10" t="n">
-        <v>1615.416622088219</v>
+        <v>547.5195041058769</v>
       </c>
       <c r="W10" t="n">
-        <v>1615.416622088219</v>
+        <v>268.4498396147512</v>
       </c>
       <c r="X10" t="n">
-        <v>1587.786980773785</v>
+        <v>86.01772546736878</v>
       </c>
       <c r="Y10" t="n">
-        <v>1363.05128216255</v>
+        <v>86.01772546736878</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2237.518802661711</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C11" t="n">
-        <v>1827.394211974981</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D11" t="n">
-        <v>1422.930282068041</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E11" t="n">
-        <v>1008.590066584938</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F11" t="n">
-        <v>587.5596545386256</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G11" t="n">
-        <v>178.8313704314578</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H11" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I11" t="n">
         <v>93.2436976906228</v>
@@ -5071,22 +5071,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="T11" t="n">
-        <v>4439.978400477999</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U11" t="n">
-        <v>4182.917908737509</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V11" t="n">
-        <v>3833.080354073989</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W11" t="n">
-        <v>3449.320053209158</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X11" t="n">
-        <v>3048.67665537811</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y11" t="n">
-        <v>2647.7399823262</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="12">
@@ -5126,13 +5126,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L12" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M12" t="n">
-        <v>936.2207783851894</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="N12" t="n">
-        <v>1435.775802995229</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O12" t="n">
         <v>2139.732893541123</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.2436976906228</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C13" t="n">
-        <v>93.2436976906228</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D13" t="n">
-        <v>93.2436976906228</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E13" t="n">
-        <v>93.2436976906228</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F13" t="n">
-        <v>93.2436976906228</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G13" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H13" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I13" t="n">
         <v>93.2436976906228</v>
@@ -5229,22 +5229,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T13" t="n">
-        <v>1383.093855288175</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U13" t="n">
-        <v>1100.295707834299</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V13" t="n">
-        <v>826.4099627738212</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W13" t="n">
-        <v>547.3402982826956</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="X13" t="n">
-        <v>308.996436142379</v>
+        <v>1595.012952997039</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.2436976906228</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2549.191389976085</v>
+        <v>2459.725286714852</v>
       </c>
       <c r="C14" t="n">
-        <v>2139.066799289355</v>
+        <v>2049.600696028122</v>
       </c>
       <c r="D14" t="n">
-        <v>1734.602869382415</v>
+        <v>1645.136766121183</v>
       </c>
       <c r="E14" t="n">
-        <v>1320.262653899312</v>
+        <v>1230.796550638079</v>
       </c>
       <c r="F14" t="n">
-        <v>899.2322418529996</v>
+        <v>809.7661385917668</v>
       </c>
       <c r="G14" t="n">
-        <v>490.5039577458317</v>
+        <v>401.0378544845989</v>
       </c>
       <c r="H14" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I14" t="n">
         <v>93.2436976906228</v>
@@ -5311,19 +5311,19 @@
         <v>4662.18488453114</v>
       </c>
       <c r="U14" t="n">
-        <v>4494.590496051882</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V14" t="n">
-        <v>4144.752941388363</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W14" t="n">
-        <v>3760.992640523532</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X14" t="n">
-        <v>3360.349242692484</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y14" t="n">
-        <v>2959.412569640574</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="15">
@@ -5363,22 +5363,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L15" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M15" t="n">
-        <v>93.2436976906228</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="N15" t="n">
-        <v>966.9017898022406</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O15" t="n">
-        <v>1670.858880348135</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P15" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q15" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R15" t="n">
         <v>2139.732893541123</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.2436976906228</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C16" t="n">
-        <v>93.2436976906228</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D16" t="n">
-        <v>93.2436976906228</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E16" t="n">
-        <v>93.2436976906228</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F16" t="n">
-        <v>93.2436976906228</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G16" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H16" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I16" t="n">
         <v>93.2436976906228</v>
@@ -5460,28 +5460,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S16" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T16" t="n">
-        <v>1392.076815447654</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U16" t="n">
-        <v>1109.278667993779</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="V16" t="n">
-        <v>835.3929229333004</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="W16" t="n">
-        <v>556.3232584421747</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="X16" t="n">
-        <v>317.9793963018581</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.2436976906228</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2549.191389976085</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C17" t="n">
-        <v>2139.066799289355</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D17" t="n">
-        <v>1734.602869382415</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E17" t="n">
-        <v>1320.262653899312</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F17" t="n">
-        <v>899.2322418529996</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G17" t="n">
-        <v>490.5039577458317</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H17" t="n">
         <v>179.5954603735497</v>
@@ -5518,7 +5518,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5545,22 +5545,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="T17" t="n">
-        <v>4662.18488453114</v>
+        <v>4440.742490420091</v>
       </c>
       <c r="U17" t="n">
-        <v>4494.590496051882</v>
+        <v>4183.681998679601</v>
       </c>
       <c r="V17" t="n">
-        <v>4144.752941388363</v>
+        <v>3833.844444016082</v>
       </c>
       <c r="W17" t="n">
-        <v>3760.992640523532</v>
+        <v>3450.08414315125</v>
       </c>
       <c r="X17" t="n">
-        <v>3360.349242692484</v>
+        <v>3049.440745320202</v>
       </c>
       <c r="Y17" t="n">
-        <v>2959.412569640574</v>
+        <v>2648.504072268292</v>
       </c>
     </row>
     <row r="18">
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.2436976906228</v>
+        <v>175.630695628225</v>
       </c>
       <c r="C19" t="n">
         <v>93.2436976906228</v>
@@ -5703,22 +5703,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1392.076815447654</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U19" t="n">
-        <v>1109.278667993779</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V19" t="n">
-        <v>835.3929229333004</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W19" t="n">
-        <v>556.3232584421747</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="X19" t="n">
-        <v>317.9793963018581</v>
+        <v>588.0661006335047</v>
       </c>
       <c r="Y19" t="n">
-        <v>93.2436976906228</v>
+        <v>363.3304020222694</v>
       </c>
     </row>
     <row r="20">
@@ -5731,16 +5731,16 @@
         <v>2102.237727455811</v>
       </c>
       <c r="C20" t="n">
-        <v>1718.036387243042</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D20" t="n">
-        <v>1313.572457336103</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E20" t="n">
-        <v>899.2322418529996</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F20" t="n">
-        <v>899.2322418529996</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="G20" t="n">
         <v>490.5039577458317</v>
@@ -5831,25 +5831,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K21" t="n">
-        <v>741.8628115185547</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L21" t="n">
-        <v>741.8628115185547</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M21" t="n">
-        <v>741.8628115185547</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N21" t="n">
-        <v>741.8628115185547</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O21" t="n">
-        <v>1228.182536368609</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P21" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q21" t="n">
         <v>2139.732893541123</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>640.0181946537314</v>
+        <v>3962.358632327273</v>
       </c>
       <c r="C22" t="n">
-        <v>640.0181946537314</v>
+        <v>3962.358632327273</v>
       </c>
       <c r="D22" t="n">
-        <v>480.5235499766414</v>
+        <v>3891.531821096053</v>
       </c>
       <c r="E22" t="n">
-        <v>319.6127348449609</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="F22" t="n">
-        <v>319.6127348449609</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="G22" t="n">
-        <v>319.6127348449609</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H22" t="n">
-        <v>209.5897435862967</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I22" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J22" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K22" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L22" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M22" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N22" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O22" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P22" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q22" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R22" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S22" t="n">
-        <v>1436.250826191383</v>
+        <v>4475.79311641105</v>
       </c>
       <c r="T22" t="n">
-        <v>1196.702087168085</v>
+        <v>4236.244377387751</v>
       </c>
       <c r="U22" t="n">
-        <v>913.9039397142094</v>
+        <v>4236.244377387751</v>
       </c>
       <c r="V22" t="n">
-        <v>640.0181946537314</v>
+        <v>3962.358632327273</v>
       </c>
       <c r="W22" t="n">
-        <v>640.0181946537314</v>
+        <v>3962.358632327273</v>
       </c>
       <c r="X22" t="n">
-        <v>640.0181946537314</v>
+        <v>3962.358632327273</v>
       </c>
       <c r="Y22" t="n">
-        <v>640.0181946537314</v>
+        <v>3962.358632327273</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2324.444211508952</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C23" t="n">
-        <v>1914.319620822223</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D23" t="n">
-        <v>1509.855690915283</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E23" t="n">
-        <v>1095.51547543218</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F23" t="n">
-        <v>674.4850633858673</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G23" t="n">
         <v>404.1521950629048</v>
@@ -5989,7 +5989,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J23" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K23" t="n">
         <v>885.5886702674165</v>
@@ -6019,22 +6019,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T23" t="n">
-        <v>4526.90380932524</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U23" t="n">
-        <v>4269.84331758475</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V23" t="n">
-        <v>3920.005762921231</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="W23" t="n">
-        <v>3536.245462056399</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X23" t="n">
-        <v>3135.602064225352</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y23" t="n">
-        <v>2734.665391173442</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="24">
@@ -6074,13 +6074,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L24" t="n">
-        <v>423.0977207349383</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M24" t="n">
-        <v>1266.074801429505</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N24" t="n">
-        <v>2139.732893541123</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O24" t="n">
         <v>2139.732893541123</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3132.785987910289</v>
+        <v>3732.335952894417</v>
       </c>
       <c r="C25" t="n">
-        <v>3132.785987910289</v>
+        <v>3561.242580456134</v>
       </c>
       <c r="D25" t="n">
-        <v>3132.785987910289</v>
+        <v>3449.64383417929</v>
       </c>
       <c r="E25" t="n">
-        <v>3132.785987910289</v>
+        <v>3449.64383417929</v>
       </c>
       <c r="F25" t="n">
-        <v>3132.785987910289</v>
+        <v>3449.64383417929</v>
       </c>
       <c r="G25" t="n">
-        <v>3132.785987910289</v>
+        <v>3282.393443104833</v>
       </c>
       <c r="H25" t="n">
         <v>3132.785987910289</v>
@@ -6171,28 +6171,28 @@
         <v>4662.18488453114</v>
       </c>
       <c r="R25" t="n">
-        <v>4576.912166206539</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S25" t="n">
-        <v>4390.520398086449</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T25" t="n">
-        <v>4150.971659063151</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U25" t="n">
-        <v>3868.173511609275</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="V25" t="n">
-        <v>3594.287766548796</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="W25" t="n">
-        <v>3315.218102057671</v>
+        <v>4383.115220040014</v>
       </c>
       <c r="X25" t="n">
-        <v>3132.785987910289</v>
+        <v>4144.771357899697</v>
       </c>
       <c r="Y25" t="n">
-        <v>3132.785987910289</v>
+        <v>3920.035659288462</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C26" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D26" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E26" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F26" t="n">
-        <v>899.2322418529996</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G26" t="n">
-        <v>490.5039577458317</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="H26" t="n">
-        <v>179.5954603735497</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="I26" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="J26" t="n">
         <v>347.4291691583771</v>
       </c>
       <c r="K26" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674167</v>
       </c>
       <c r="L26" t="n">
         <v>1598.180070079655</v>
@@ -6265,13 +6265,13 @@
         <v>3697.79927886809</v>
       </c>
       <c r="W26" t="n">
-        <v>3697.79927886809</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X26" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y26" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="27">
@@ -6314,10 +6314,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851894</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N27" t="n">
-        <v>1809.878870496807</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O27" t="n">
         <v>2139.732893541123</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3132.785987910289</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C28" t="n">
-        <v>3132.785987910289</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D28" t="n">
-        <v>3132.785987910289</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E28" t="n">
-        <v>3132.785987910289</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F28" t="n">
-        <v>3132.785987910289</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G28" t="n">
-        <v>3132.785987910289</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H28" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K28" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L28" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M28" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N28" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O28" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P28" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>4390.520398086449</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>4150.971659063151</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U28" t="n">
-        <v>3868.173511609275</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V28" t="n">
-        <v>3636.59135101265</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W28" t="n">
-        <v>3357.521686521525</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="X28" t="n">
-        <v>3357.521686521525</v>
+        <v>1595.012952997039</v>
       </c>
       <c r="Y28" t="n">
-        <v>3132.785987910289</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="29">
@@ -6451,7 +6451,7 @@
         <v>873.3089913790386</v>
       </c>
       <c r="F29" t="n">
-        <v>588.3237444807176</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G29" t="n">
         <v>179.5954603735497</v>
@@ -6463,7 +6463,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J29" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K29" t="n">
         <v>885.5886702674165</v>
@@ -6542,25 +6542,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K30" t="n">
-        <v>741.8628115185547</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L30" t="n">
-        <v>874.0699105066985</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="M30" t="n">
-        <v>874.0699105066985</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="N30" t="n">
-        <v>874.0699105066985</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="O30" t="n">
-        <v>1578.027001052593</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q30" t="n">
         <v>2139.732893541123</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>640.0181946537314</v>
+        <v>1161.057142856951</v>
       </c>
       <c r="C31" t="n">
-        <v>640.0181946537314</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D31" t="n">
-        <v>586.0360297861687</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E31" t="n">
-        <v>425.1252146544881</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F31" t="n">
-        <v>260.4940887650794</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G31" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H31" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I31" t="n">
         <v>93.2436976906228</v>
@@ -6648,25 +6648,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>1196.702087168085</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U31" t="n">
-        <v>913.9039397142094</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V31" t="n">
-        <v>640.0181946537314</v>
+        <v>1348.756849250995</v>
       </c>
       <c r="W31" t="n">
-        <v>640.0181946537314</v>
+        <v>1348.756849250995</v>
       </c>
       <c r="X31" t="n">
-        <v>640.0181946537314</v>
+        <v>1348.756849250995</v>
       </c>
       <c r="Y31" t="n">
-        <v>640.0181946537314</v>
+        <v>1348.756849250995</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C32" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D32" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E32" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F32" t="n">
-        <v>873.3089913790386</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G32" t="n">
         <v>490.5039577458317</v>
@@ -6727,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T32" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U32" t="n">
-        <v>4047.636833531609</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V32" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W32" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X32" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y32" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="33">
@@ -6785,13 +6785,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L33" t="n">
-        <v>754.331869609911</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M33" t="n">
-        <v>1435.775802995229</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N33" t="n">
-        <v>1435.775802995229</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O33" t="n">
         <v>2139.732893541123</v>
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4164.476761201259</v>
+        <v>4222.119838211426</v>
       </c>
       <c r="C34" t="n">
         <v>4051.026465773143</v>
@@ -6882,28 +6882,28 @@
         <v>4662.18488453114</v>
       </c>
       <c r="R34" t="n">
-        <v>4576.912166206539</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S34" t="n">
-        <v>4576.912166206539</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T34" t="n">
-        <v>4576.912166206539</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U34" t="n">
-        <v>4576.912166206539</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="V34" t="n">
-        <v>4576.912166206539</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="W34" t="n">
-        <v>4576.912166206539</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="X34" t="n">
-        <v>4576.912166206539</v>
+        <v>4634.555243216706</v>
       </c>
       <c r="Y34" t="n">
-        <v>4352.176467595304</v>
+        <v>4409.819544605471</v>
       </c>
     </row>
     <row r="35">
@@ -6937,7 +6937,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K35" t="n">
         <v>885.5886702674165</v>
@@ -7022,13 +7022,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L36" t="n">
-        <v>592.7987223006619</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M36" t="n">
-        <v>1435.775802995229</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N36" t="n">
-        <v>1435.775802995229</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O36" t="n">
         <v>2139.732893541123</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>634.7312138321106</v>
+        <v>936.3214442457152</v>
       </c>
       <c r="C37" t="n">
-        <v>634.7312138321106</v>
+        <v>765.2280718074317</v>
       </c>
       <c r="D37" t="n">
-        <v>475.2365691550206</v>
+        <v>735.6434849807119</v>
       </c>
       <c r="E37" t="n">
-        <v>475.2365691550206</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="F37" t="n">
-        <v>475.2365691550206</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G37" t="n">
-        <v>359.19719878084</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H37" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I37" t="n">
         <v>93.2436976906228</v>
@@ -7128,19 +7128,19 @@
         <v>1622.642594311473</v>
       </c>
       <c r="U37" t="n">
-        <v>1339.844446857597</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V37" t="n">
-        <v>1339.844446857597</v>
+        <v>1348.756849250995</v>
       </c>
       <c r="W37" t="n">
-        <v>1060.774782366472</v>
+        <v>1348.756849250995</v>
       </c>
       <c r="X37" t="n">
-        <v>822.430920226155</v>
+        <v>1348.756849250995</v>
       </c>
       <c r="Y37" t="n">
-        <v>822.430920226155</v>
+        <v>1124.02115063976</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C38" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D38" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E38" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F38" t="n">
-        <v>490.5039577458317</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G38" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H38" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7204,22 +7204,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T38" t="n">
-        <v>4304.697325272099</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="U38" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V38" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W38" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X38" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y38" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="39">
@@ -7262,10 +7262,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M39" t="n">
-        <v>936.2207783851894</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N39" t="n">
-        <v>1809.878870496807</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O39" t="n">
         <v>2139.732893541123</v>
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>423.8317148059963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C40" t="n">
-        <v>252.7383423677128</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D40" t="n">
         <v>93.2436976906228</v>
@@ -7356,28 +7356,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T40" t="n">
-        <v>1297.821136963575</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U40" t="n">
-        <v>1297.821136963575</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V40" t="n">
-        <v>1023.935391903097</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W40" t="n">
-        <v>744.865727411971</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X40" t="n">
-        <v>506.5218652716543</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y40" t="n">
-        <v>506.5218652716543</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2462.839627293158</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C41" t="n">
-        <v>2052.715036606428</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D41" t="n">
-        <v>1648.251106699488</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E41" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F41" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G41" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H41" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I41" t="n">
         <v>93.2436976906228</v>
@@ -7438,25 +7438,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>4662.18488453114</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="U41" t="n">
-        <v>4408.238733368956</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V41" t="n">
-        <v>4058.401178705436</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W41" t="n">
-        <v>3674.640877840605</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X41" t="n">
-        <v>3273.997480009557</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y41" t="n">
-        <v>2873.060806957647</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="42">
@@ -7493,19 +7493,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K42" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L42" t="n">
-        <v>1210.13812587521</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M42" t="n">
-        <v>1578.027001052593</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N42" t="n">
-        <v>1578.027001052593</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O42" t="n">
-        <v>1578.027001052593</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P42" t="n">
         <v>2139.732893541123</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3715.102367793559</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="C43" t="n">
-        <v>3715.102367793559</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="D43" t="n">
-        <v>3715.102367793559</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="E43" t="n">
-        <v>3554.191552661878</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="F43" t="n">
-        <v>3389.560426772469</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G43" t="n">
-        <v>3222.310035698013</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H43" t="n">
-        <v>3222.310035698013</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I43" t="n">
         <v>3132.785987910289</v>
@@ -7596,25 +7596,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S43" t="n">
-        <v>4475.79311641105</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T43" t="n">
-        <v>4236.244377387751</v>
+        <v>4422.636145507842</v>
       </c>
       <c r="U43" t="n">
-        <v>3953.446229933875</v>
+        <v>4139.837998053967</v>
       </c>
       <c r="V43" t="n">
-        <v>3953.446229933875</v>
+        <v>3865.952252993488</v>
       </c>
       <c r="W43" t="n">
-        <v>3953.446229933875</v>
+        <v>3586.882588502363</v>
       </c>
       <c r="X43" t="n">
-        <v>3715.102367793559</v>
+        <v>3348.538726362046</v>
       </c>
       <c r="Y43" t="n">
-        <v>3715.102367793559</v>
+        <v>3132.785987910289</v>
       </c>
     </row>
     <row r="44">
@@ -7648,7 +7648,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K44" t="n">
         <v>885.5886702674165</v>
@@ -7733,16 +7733,16 @@
         <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>1056.371818948615</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M45" t="n">
-        <v>1056.371818948615</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N45" t="n">
-        <v>1056.371818948615</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O45" t="n">
-        <v>1760.328909494509</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P45" t="n">
         <v>1760.328909494509</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>916.6240469015422</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C46" t="n">
-        <v>745.5306744632587</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D46" t="n">
-        <v>586.0360297861687</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E46" t="n">
-        <v>425.1252146544881</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F46" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G46" t="n">
         <v>93.2436976906228</v>
@@ -7836,22 +7836,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T46" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U46" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V46" t="n">
-        <v>1622.642594311473</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W46" t="n">
-        <v>1567.403314047138</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X46" t="n">
-        <v>1329.059451906822</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y46" t="n">
-        <v>1104.323753295587</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
   </sheetData>
@@ -7981,16 +7981,16 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>590.1064824525349</v>
       </c>
       <c r="L2" t="n">
-        <v>555.4891820648243</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
         <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
         <v>615.2533459958087</v>
@@ -8002,7 +8002,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,16 +8057,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M3" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
         <v>575.2569637637755</v>
@@ -8075,13 +8075,13 @@
         <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
-        <v>201.8514806265821</v>
+        <v>330.6111652313504</v>
       </c>
       <c r="Q3" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8218,25 +8218,25 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>590.1064824525349</v>
       </c>
       <c r="L5" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
         <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
         <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>270.21439869122</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
         <v>87.31214281472352</v>
@@ -8294,25 +8294,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
-        <v>421.0562344946766</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
-        <v>576.3232053728293</v>
+        <v>555.229727782121</v>
       </c>
       <c r="Q6" t="n">
         <v>56.69261850483872</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>275.0827150970472</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L8" t="n">
-        <v>815.2746908024792</v>
+        <v>755.344870820532</v>
       </c>
       <c r="M8" t="n">
         <v>877.4504173780091</v>
@@ -8476,7 +8476,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8537,7 +8537,7 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
         <v>57.56428373841742</v>
@@ -8546,13 +8546,13 @@
         <v>935.6763147186165</v>
       </c>
       <c r="O9" t="n">
-        <v>574.6635313430239</v>
+        <v>321.6714250266352</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
         <v>59.00019910540541</v>
@@ -8707,10 +8707,10 @@
         <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>628.1510783507341</v>
+        <v>628.1510783507342</v>
       </c>
       <c r="Q11" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
         <v>128.2784515920617</v>
@@ -8774,16 +8774,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N12" t="n">
-        <v>557.7944283533855</v>
+        <v>601.0963663600584</v>
       </c>
       <c r="O12" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
         <v>54.25963500280375</v>
@@ -9011,25 +9011,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
-        <v>57.56428373841742</v>
+        <v>178.5117997957786</v>
       </c>
       <c r="N15" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P15" t="n">
-        <v>144.6334018173235</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9166,7 +9166,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
-        <v>632.7318453389136</v>
+        <v>632.7318453389137</v>
       </c>
       <c r="L17" t="n">
         <v>815.2746908024792</v>
@@ -9424,7 +9424,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,28 +9479,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K21" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N21" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O21" t="n">
-        <v>548.9835243030855</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P21" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R21" t="n">
         <v>59.00019910540541</v>
@@ -9722,7 +9722,7 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L24" t="n">
-        <v>389.300405673794</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
         <v>909.0562844399999</v>
@@ -9731,7 +9731,7 @@
         <v>935.6763147186165</v>
       </c>
       <c r="O24" t="n">
-        <v>57.751479</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
@@ -9962,13 +9962,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N27" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O27" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P27" t="n">
         <v>54.25963500280375</v>
@@ -10190,13 +10190,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
-        <v>189.6570480412973</v>
+        <v>491.4496229341746</v>
       </c>
       <c r="M30" t="n">
         <v>57.56428373841742</v>
@@ -10211,7 +10211,7 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>59.00019910540541</v>
@@ -10433,16 +10433,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>745.8914891781321</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N33" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P33" t="n">
         <v>54.25963500280375</v>
@@ -10670,16 +10670,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>560.7155587704844</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N36" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P36" t="n">
         <v>54.25963500280375</v>
@@ -10910,13 +10910,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N39" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O39" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P39" t="n">
         <v>54.25963500280375</v>
@@ -11083,7 +11083,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,22 +11141,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>429.1692081600164</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N42" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O42" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P42" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
         <v>56.69261850483872</v>
@@ -11381,7 +11381,7 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>373.8003899018191</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M45" t="n">
         <v>57.56428373841742</v>
@@ -11390,10 +11390,10 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
         <v>410.0708656603775</v>
@@ -22549,19 +22549,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>45.10777180386947</v>
       </c>
       <c r="F2" t="n">
-        <v>4.506424269048352</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
@@ -22600,22 +22600,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -22710,22 +22710,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22761,16 +22761,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>126.9450269688244</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>208.6070786176243</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22792,19 +22792,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>65.28280402329767</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,22 +22834,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>68.4875795955989</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -22941,10 +22941,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>157.8996982303191</v>
@@ -22992,22 +22992,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>211.3650181101788</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>41.88054861921438</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -23029,7 +23029,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>312.7485948743977</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -23074,13 +23074,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>184.6134679555875</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23178,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>208.6070786176243</v>
+        <v>55.35263051300484</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>223.0676163851325</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,10 +23311,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>88.57144222861982</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,22 +23469,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.893130557884348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>3.08319717252283</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,7 +23551,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>88.57144222861982</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>8.893130557884461</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>57.06664624006493</v>
       </c>
     </row>
     <row r="17">
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23785,10 +23785,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0.756449042671278</v>
       </c>
       <c r="U17" t="n">
-        <v>88.57144222861982</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>87.81931075567451</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
@@ -23943,7 +23943,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>8.893130557884461</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>25.66401796922139</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23980,10 +23980,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>37.84312462897441</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>87.781155111411</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>39.18861929652036</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24220,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>137.0114616263633</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24259,16 +24259,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>10.65670172208877</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>47.41693941624312</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
@@ -24378,10 +24378,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>115.1825854367171</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>55.35263051300575</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>49.19646844041387</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24505,10 +24505,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>62.56142803888764</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>41.88054861921515</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24691,10 +24691,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>134.6847134965114</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>307.7994123985592</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>21.30520108346084</v>
       </c>
       <c r="D31" t="n">
-        <v>104.457355011432</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24928,10 +24928,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>25.66401796922122</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>88.57144222862024</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>57.0666462400653</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
         <v>184.5278504388888</v>
@@ -25140,7 +25140,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>208.6070786176241</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>128.6109572718666</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>50.69891049327325</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,19 +25368,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25402,16 +25402,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>37.84312462897441</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,10 +25444,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>102.5059940158882</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>103.9594603691025</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
         <v>184.5278504388888</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="41">
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>187.994239071985</v>
       </c>
       <c r="U41" t="n">
-        <v>3.083197172522915</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>26.55377812687109</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557883893</v>
       </c>
     </row>
     <row r="44">
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
         <v>148.1113806425979</v>
@@ -26076,22 +26076,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>221.5920803845231</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>782296.2147749176</v>
+        <v>782296.2147749175</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>782296.2147749176</v>
+        <v>782296.2147749175</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>782296.2147749173</v>
+        <v>782296.2147749175</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>782296.2147749175</v>
+        <v>782296.2147749173</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>782296.2147749171</v>
+        <v>782296.2147749175</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>782296.2147749176</v>
+        <v>782296.2147749175</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>782296.2147749173</v>
+        <v>782296.2147749176</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>782296.2147749175</v>
+        <v>782296.2147749176</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>161720.1620581894</v>
+        <v>161720.1620581895</v>
       </c>
       <c r="C2" t="n">
-        <v>161720.1620581894</v>
+        <v>161720.1620581895</v>
       </c>
       <c r="D2" t="n">
         <v>234342.8728032615</v>
@@ -26331,19 +26331,19 @@
         <v>246201.3674048298</v>
       </c>
       <c r="H2" t="n">
-        <v>246201.3674048298</v>
+        <v>246201.3674048297</v>
       </c>
       <c r="I2" t="n">
         <v>246201.3674048298</v>
       </c>
       <c r="J2" t="n">
+        <v>246201.3674048297</v>
+      </c>
+      <c r="K2" t="n">
         <v>246201.3674048298</v>
       </c>
-      <c r="K2" t="n">
-        <v>246201.3674048299</v>
-      </c>
       <c r="L2" t="n">
-        <v>246201.3674048297</v>
+        <v>246201.3674048298</v>
       </c>
       <c r="M2" t="n">
         <v>246201.3674048298</v>
@@ -26374,7 +26374,7 @@
         <v>171827.4689100685</v>
       </c>
       <c r="E3" t="n">
-        <v>26968.95418093424</v>
+        <v>26968.9541809342</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>139999.3108647527</v>
+        <v>139999.3108647528</v>
       </c>
       <c r="M3" t="n">
-        <v>22509.26477404744</v>
+        <v>22509.2647740474</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26475,7 +26475,7 @@
         <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>99001.07135520026</v>
+        <v>99001.07135520027</v>
       </c>
       <c r="E5" t="n">
         <v>70865.21024487332</v>
@@ -26521,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-88695.18035776462</v>
+        <v>-88695.18035776459</v>
       </c>
       <c r="C6" t="n">
-        <v>86260.32953534945</v>
+        <v>86260.32953534953</v>
       </c>
       <c r="D6" t="n">
         <v>-51196.61612373905</v>
       </c>
       <c r="E6" t="n">
-        <v>132901.8292419582</v>
+        <v>132901.8292419583</v>
       </c>
       <c r="F6" t="n">
         <v>159870.7834228925</v>
@@ -26539,19 +26539,19 @@
         <v>159870.7834228925</v>
       </c>
       <c r="H6" t="n">
-        <v>159870.7834228925</v>
+        <v>159870.7834228924</v>
       </c>
       <c r="I6" t="n">
         <v>159870.7834228925</v>
       </c>
       <c r="J6" t="n">
-        <v>23275.9826169975</v>
+        <v>23275.98261699744</v>
       </c>
       <c r="K6" t="n">
-        <v>159870.7834228926</v>
+        <v>159870.7834228925</v>
       </c>
       <c r="L6" t="n">
-        <v>19871.47255813968</v>
+        <v>19871.47255813971</v>
       </c>
       <c r="M6" t="n">
         <v>137361.5186488451</v>
@@ -26563,7 +26563,7 @@
         <v>159870.7834228925</v>
       </c>
       <c r="P6" t="n">
-        <v>159870.7834228925</v>
+        <v>159870.7834228924</v>
       </c>
     </row>
   </sheetData>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>553.1579979720841</v>
+        <v>553.1579979720842</v>
       </c>
       <c r="E4" t="n">
-        <v>90.32465279067526</v>
+        <v>90.32465279067513</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>553.1579979720841</v>
+        <v>553.1579979720842</v>
       </c>
       <c r="M4" t="n">
-        <v>90.32465279067526</v>
+        <v>90.32465279067512</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>553.1579979720841</v>
+        <v>553.1579979720842</v>
       </c>
       <c r="M4" t="n">
-        <v>90.32465279067526</v>
+        <v>90.32465279067513</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -34701,16 +34701,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>500.9700927793178</v>
       </c>
       <c r="L2" t="n">
-        <v>460.0037840019794</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>522.0635703700256</v>
@@ -34722,7 +34722,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>522.0635703700256</v>
@@ -34795,13 +34795,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P3" t="n">
-        <v>147.5918456237784</v>
+        <v>276.3515302285466</v>
       </c>
       <c r="Q3" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34938,25 +34938,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>500.9700927793178</v>
       </c>
       <c r="L5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P5" t="n">
-        <v>176.5650354103359</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
       <c r="N6" t="n">
-        <v>367.8628411009266</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793172</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>185.9463254238301</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L8" t="n">
-        <v>719.7892927396343</v>
+        <v>659.8594727576872</v>
       </c>
       <c r="M8" t="n">
         <v>784.1601929209636</v>
@@ -35196,7 +35196,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35257,7 +35257,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35266,13 +35266,13 @@
         <v>882.4829213248665</v>
       </c>
       <c r="O9" t="n">
-        <v>516.9120523430239</v>
+        <v>263.9199460266352</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35427,10 +35427,10 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>534.50171506985</v>
+        <v>534.5017150698501</v>
       </c>
       <c r="Q11" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
         <v>40.9663087773382</v>
@@ -35494,16 +35494,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N12" t="n">
-        <v>504.6010349596355</v>
+        <v>547.9029729663084</v>
       </c>
       <c r="O12" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35731,25 +35731,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>120.9475160573612</v>
       </c>
       <c r="N15" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P15" t="n">
-        <v>90.3737668145198</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35886,7 +35886,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
-        <v>543.5954556656965</v>
+        <v>543.5954556656966</v>
       </c>
       <c r="L17" t="n">
         <v>719.7892927396343</v>
@@ -36144,7 +36144,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O21" t="n">
-        <v>491.2320453030855</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P21" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36442,7 +36442,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>851.4920007015825</v>
@@ -36451,7 +36451,7 @@
         <v>882.4829213248665</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36682,13 +36682,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N27" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O27" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>133.5425242304483</v>
+        <v>435.3350991233255</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37153,16 +37153,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>688.3272054397147</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O33" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37390,16 +37390,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>504.6010349596355</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37630,13 +37630,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N39" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O39" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>371.6049244215989</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P42" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38101,7 +38101,7 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>317.6858660909701</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38110,10 +38110,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
         <v>353.3782471555388</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>719804.7747146689</v>
+        <v>716991.7754504555</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5301029.81102974</v>
+        <v>5301029.811029742</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3772361.273823851</v>
+        <v>3772361.273823854</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8484367.057907987</v>
+        <v>8484367.057907991</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>365.0890415244028</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>58.83520765680321</v>
       </c>
     </row>
     <row r="3">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -867,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>153.0251390105127</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>82.85798684944078</v>
       </c>
       <c r="X4" t="n">
         <v>235.9604235189134</v>
@@ -898,7 +898,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>41.77736672774366</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -910,10 +910,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>242.5166083752615</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -952,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
@@ -964,7 +964,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>68.60514786915827</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
         <v>271.1468876098733</v>
@@ -1119,10 +1119,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>94.35048654214712</v>
       </c>
     </row>
     <row r="8">
@@ -1141,13 +1141,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>97.4482184538746</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>8.552269142363938</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
         <v>219.9844192126098</v>
@@ -1192,7 +1192,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
@@ -1201,7 +1201,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>237.1532516330649</v>
@@ -1356,10 +1356,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>180.6077930059086</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="11">
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>165.9184445944652</v>
+        <v>191.9284587841978</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>396.636963852737</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>43.73227063629162</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -1624,10 +1624,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>304.7162152260364</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>208.642724780751</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -1672,7 +1672,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>396.9273063213908</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>165.421695385058</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="17">
@@ -1855,16 +1855,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>59.82422708687632</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>219.2279701699385</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
         <v>254.489886823085</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>81.56312795822615</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2064,13 +2064,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="20">
@@ -2092,10 +2092,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>378.9769832968749</v>
+        <v>108.2642464846192</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
         <v>307.7994123985592</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>219.9844192126098</v>
@@ -2244,22 +2244,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>70.11854311890808</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="23">
@@ -2368,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>369.2659961340943</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
         <v>396.636963852737</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>110.482758814076</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
@@ -2544,7 +2544,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="26">
@@ -2569,10 +2569,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>355.4445328256822</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="29">
@@ -2806,13 +2806,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>269.9562877695847</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>84.73179601342665</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>219.9844192126098</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>148.0772376304398</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>115.1825854367171</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>98.41262563052148</v>
       </c>
     </row>
     <row r="32">
@@ -3034,7 +3034,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>177.9195839254091</v>
       </c>
       <c r="E32" t="n">
         <v>410.1968133282722</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>257.7677368882639</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>27.35334490128935</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="35">
@@ -3277,7 +3277,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>404.6410012660961</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>165.9184445944652</v>
+        <v>228.8258688538634</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>29.28874095845251</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,19 +3477,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>262.2537570519889</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>117.4784251967216</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>88.08110241150609</v>
       </c>
       <c r="T41" t="n">
-        <v>31.99018014062471</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3805,7 +3805,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -3966,7 +3966,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>213.595211067239</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.4066896505621</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>815.0058251571504</v>
+        <v>1270.693821706375</v>
       </c>
       <c r="C2" t="n">
-        <v>815.0058251571504</v>
+        <v>860.5692310196448</v>
       </c>
       <c r="D2" t="n">
-        <v>410.5418952502109</v>
+        <v>456.1053011127053</v>
       </c>
       <c r="E2" t="n">
         <v>41.76508562960205</v>
@@ -4342,7 +4342,7 @@
         <v>1571.411346813777</v>
       </c>
       <c r="N2" t="n">
-        <v>1571.411346813777</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O2" t="n">
         <v>2088.254281480102</v>
@@ -4357,25 +4357,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>1866.047797426961</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U2" t="n">
-        <v>1608.987305686471</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V2" t="n">
-        <v>1608.987305686471</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W2" t="n">
-        <v>1225.22700482164</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="X2" t="n">
-        <v>1225.22700482164</v>
+        <v>1330.123324390014</v>
       </c>
       <c r="Y2" t="n">
-        <v>1225.22700482164</v>
+        <v>1270.693821706375</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G3" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>234.5779431922353</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>234.5779431922353</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="L3" t="n">
-        <v>751.4208778585605</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M3" t="n">
-        <v>751.4208778585605</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N3" t="n">
-        <v>1268.263812524886</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O3" t="n">
-        <v>1785.106747191211</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P3" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
         <v>2058.694762117472</v>
@@ -4448,13 +4448,13 @@
         <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X3" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="4">
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>212.8584580678856</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C4" t="n">
         <v>41.76508562960205</v>
@@ -4515,25 +4515,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1571.163982250452</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T4" t="n">
-        <v>1571.163982250452</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U4" t="n">
-        <v>1416.593134765086</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="V4" t="n">
-        <v>1142.707389704608</v>
+        <v>588.5395825927103</v>
       </c>
       <c r="W4" t="n">
-        <v>863.6377252134819</v>
+        <v>504.844646381154</v>
       </c>
       <c r="X4" t="n">
-        <v>625.2938630731653</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y4" t="n">
-        <v>400.5581644619299</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>286.7313567157248</v>
+        <v>492.6927300678241</v>
       </c>
       <c r="C5" t="n">
-        <v>286.7313567157248</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="D5" t="n">
-        <v>286.7313567157248</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="E5" t="n">
-        <v>286.7313567157248</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="F5" t="n">
-        <v>286.7313567157248</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G5" t="n">
-        <v>286.7313567157248</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
         <v>41.76508562960205</v>
@@ -4570,19 +4570,19 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
+        <v>41.76508562960205</v>
+      </c>
+      <c r="L5" t="n">
+        <v>41.76508562960205</v>
+      </c>
+      <c r="M5" t="n">
         <v>537.7254774811266</v>
       </c>
-      <c r="L5" t="n">
-        <v>537.7254774811266</v>
-      </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>1054.568412147452</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>1571.411346813777</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2088.254281480102</v>
       </c>
       <c r="P5" t="n">
         <v>2088.254281480102</v>
@@ -4600,19 +4600,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U5" t="n">
-        <v>1831.193789739612</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V5" t="n">
-        <v>1481.356235076093</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W5" t="n">
-        <v>1097.595934211262</v>
+        <v>1704.493980615271</v>
       </c>
       <c r="X5" t="n">
-        <v>696.9525363802143</v>
+        <v>1303.850582784223</v>
       </c>
       <c r="Y5" t="n">
-        <v>696.9525363802143</v>
+        <v>902.9139097323135</v>
       </c>
     </row>
     <row r="6">
@@ -4652,22 +4652,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="L6" t="n">
-        <v>41.76508562960205</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M6" t="n">
         <v>558.6080202959273</v>
       </c>
       <c r="N6" t="n">
-        <v>1075.450954962253</v>
+        <v>675.1644281008379</v>
       </c>
       <c r="O6" t="n">
-        <v>1592.293889628578</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P6" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4749,25 +4749,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1485.891263925851</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U7" t="n">
-        <v>1416.593134765086</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V7" t="n">
-        <v>1142.707389704608</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W7" t="n">
-        <v>863.6377252134819</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X7" t="n">
-        <v>625.2938630731653</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="Y7" t="n">
         <v>400.5581644619299</v>
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2226.05774616253</v>
+        <v>2141.87578934502</v>
       </c>
       <c r="C8" t="n">
-        <v>1815.9331554758</v>
+        <v>1731.75119865829</v>
       </c>
       <c r="D8" t="n">
-        <v>1411.469225568861</v>
+        <v>1327.287268751351</v>
       </c>
       <c r="E8" t="n">
-        <v>1313.036681676058</v>
+        <v>912.9470532682476</v>
       </c>
       <c r="F8" t="n">
-        <v>892.0062696297455</v>
+        <v>491.9166412219352</v>
       </c>
       <c r="G8" t="n">
         <v>483.2779855225776</v>
@@ -4801,55 +4801,55 @@
         <v>172.3694881502956</v>
       </c>
       <c r="I8" t="n">
-        <v>86.01772546736878</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J8" t="n">
-        <v>86.01772546736878</v>
+        <v>340.2031969351231</v>
       </c>
       <c r="K8" t="n">
-        <v>624.1772265764083</v>
+        <v>878.3626980441626</v>
       </c>
       <c r="L8" t="n">
-        <v>1277.438104606519</v>
+        <v>1590.9540978564</v>
       </c>
       <c r="M8" t="n">
-        <v>2053.756695598272</v>
+        <v>2367.272688848154</v>
       </c>
       <c r="N8" t="n">
-        <v>2806.937712236891</v>
+        <v>3087.542073342617</v>
       </c>
       <c r="O8" t="n">
-        <v>3450.568568653995</v>
+        <v>3731.172929759722</v>
       </c>
       <c r="P8" t="n">
-        <v>3979.725266573147</v>
+        <v>4260.329627678873</v>
       </c>
       <c r="Q8" t="n">
-        <v>4300.886273368439</v>
+        <v>4260.329627678873</v>
       </c>
       <c r="R8" t="n">
-        <v>4300.886273368439</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="S8" t="n">
-        <v>4300.886273368439</v>
+        <v>4165.605198162539</v>
       </c>
       <c r="T8" t="n">
-        <v>4078.679789315298</v>
+        <v>3943.398714109398</v>
       </c>
       <c r="U8" t="n">
-        <v>3821.619297574808</v>
+        <v>3686.338222368908</v>
       </c>
       <c r="V8" t="n">
-        <v>3821.619297574808</v>
+        <v>3336.500667705388</v>
       </c>
       <c r="W8" t="n">
-        <v>3437.858996709977</v>
+        <v>2952.740366840557</v>
       </c>
       <c r="X8" t="n">
-        <v>3037.215598878929</v>
+        <v>2552.096969009509</v>
       </c>
       <c r="Y8" t="n">
-        <v>2636.278925827019</v>
+        <v>2552.096969009509</v>
       </c>
     </row>
     <row r="9">
@@ -4859,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>764.8485673539033</v>
+        <v>764.848567353903</v>
       </c>
       <c r="C9" t="n">
-        <v>630.8534961028489</v>
+        <v>630.8534961028488</v>
       </c>
       <c r="D9" t="n">
-        <v>513.9563383222413</v>
+        <v>513.9563383222412</v>
       </c>
       <c r="E9" t="n">
-        <v>393.4635223145693</v>
+        <v>393.4635223145692</v>
       </c>
       <c r="F9" t="n">
-        <v>284.5036424970739</v>
+        <v>284.5036424970738</v>
       </c>
       <c r="G9" t="n">
-        <v>177.5135298114126</v>
+        <v>177.5135298114125</v>
       </c>
       <c r="H9" t="n">
         <v>106.7663168471286</v>
       </c>
       <c r="I9" t="n">
-        <v>86.01772546736878</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J9" t="n">
-        <v>86.01772546736878</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="K9" t="n">
-        <v>86.01772546736878</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="L9" t="n">
-        <v>86.01772546736878</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="M9" t="n">
-        <v>86.01772546736878</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="N9" t="n">
         <v>959.6758175789867</v>
       </c>
       <c r="O9" t="n">
-        <v>1220.956564145356</v>
+        <v>1191.397044782725</v>
       </c>
       <c r="P9" t="n">
-        <v>1782.662456633886</v>
+        <v>1753.102937271255</v>
       </c>
       <c r="Q9" t="n">
-        <v>2132.506921317869</v>
+        <v>2102.947401955239</v>
       </c>
       <c r="R9" t="n">
         <v>2132.506921317869</v>
       </c>
       <c r="S9" t="n">
-        <v>2024.516911432178</v>
+        <v>2024.516911432177</v>
       </c>
       <c r="T9" t="n">
         <v>1865.175047619186</v>
       </c>
       <c r="U9" t="n">
-        <v>1667.824236757405</v>
+        <v>1667.824236757404</v>
       </c>
       <c r="V9" t="n">
-        <v>1454.112709750439</v>
+        <v>1454.112709750438</v>
       </c>
       <c r="W9" t="n">
         <v>1240.879541486767</v>
@@ -4928,7 +4928,7 @@
         <v>1064.55355962566</v>
       </c>
       <c r="Y9" t="n">
-        <v>905.1515999894899</v>
+        <v>905.1515999894897</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>86.01772546736878</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="C10" t="n">
-        <v>86.01772546736878</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="D10" t="n">
-        <v>86.01772546736878</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="E10" t="n">
-        <v>86.01772546736878</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="F10" t="n">
-        <v>86.01772546736878</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="G10" t="n">
-        <v>86.01772546736878</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="H10" t="n">
-        <v>86.01772546736878</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="I10" t="n">
-        <v>86.01772546736878</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J10" t="n">
         <v>100.1002748725793</v>
@@ -4986,28 +4986,28 @@
         <v>1615.416622088219</v>
       </c>
       <c r="R10" t="n">
-        <v>1530.143903763618</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="S10" t="n">
-        <v>1343.752135643529</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="T10" t="n">
-        <v>1104.203396620231</v>
+        <v>1375.867883064921</v>
       </c>
       <c r="U10" t="n">
-        <v>821.4052491663549</v>
+        <v>1093.069735611045</v>
       </c>
       <c r="V10" t="n">
-        <v>547.5195041058769</v>
+        <v>819.1839905505669</v>
       </c>
       <c r="W10" t="n">
-        <v>268.4498396147512</v>
+        <v>540.1143260594413</v>
       </c>
       <c r="X10" t="n">
-        <v>86.01772546736878</v>
+        <v>301.7704639191247</v>
       </c>
       <c r="Y10" t="n">
-        <v>86.01772546736878</v>
+        <v>86.01772546736876</v>
       </c>
     </row>
     <row r="11">
@@ -5068,16 +5068,16 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T11" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U11" t="n">
-        <v>4494.590496051882</v>
+        <v>4110.830195187051</v>
       </c>
       <c r="V11" t="n">
-        <v>4144.752941388363</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="W11" t="n">
         <v>3760.992640523532</v>
@@ -5120,25 +5120,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L12" t="n">
-        <v>754.331869609911</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M12" t="n">
-        <v>1597.308950304478</v>
+        <v>286.056555253256</v>
       </c>
       <c r="N12" t="n">
-        <v>2139.732893541123</v>
+        <v>1085.931338311245</v>
       </c>
       <c r="O12" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="P12" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q12" t="n">
         <v>2139.732893541123</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1182.57754799176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C13" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D13" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E13" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F13" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G13" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H13" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I13" t="n">
         <v>93.2436976906228</v>
@@ -5226,25 +5226,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S13" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T13" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U13" t="n">
-        <v>1622.642594311473</v>
+        <v>1153.452678737507</v>
       </c>
       <c r="V13" t="n">
-        <v>1622.642594311473</v>
+        <v>879.5669336770293</v>
       </c>
       <c r="W13" t="n">
-        <v>1622.642594311473</v>
+        <v>600.4972691859036</v>
       </c>
       <c r="X13" t="n">
-        <v>1595.012952997039</v>
+        <v>362.153407045587</v>
       </c>
       <c r="Y13" t="n">
-        <v>1370.277254385804</v>
+        <v>137.4177084343517</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2459.725286714852</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C14" t="n">
-        <v>2049.600696028122</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D14" t="n">
-        <v>1645.136766121183</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E14" t="n">
-        <v>1230.796550638079</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F14" t="n">
-        <v>809.7661385917668</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G14" t="n">
-        <v>401.0378544845989</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H14" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I14" t="n">
         <v>93.2436976906228</v>
@@ -5281,7 +5281,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L14" t="n">
         <v>1598.180070079655</v>
@@ -5305,25 +5305,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T14" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U14" t="n">
-        <v>4405.12439279065</v>
+        <v>4093.947098220835</v>
       </c>
       <c r="V14" t="n">
-        <v>4055.286838127131</v>
+        <v>3744.109543557316</v>
       </c>
       <c r="W14" t="n">
-        <v>3671.526537262299</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="X14" t="n">
-        <v>3270.883139431251</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y14" t="n">
-        <v>2869.946466379341</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="15">
@@ -5357,22 +5357,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K15" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L15" t="n">
-        <v>754.331869609911</v>
+        <v>423.0977207349383</v>
       </c>
       <c r="M15" t="n">
-        <v>874.0699105066985</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="N15" t="n">
-        <v>874.0699105066985</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O15" t="n">
-        <v>1578.027001052593</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P15" t="n">
         <v>2139.732893541123</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1182.57754799176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C16" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D16" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E16" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F16" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G16" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H16" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I16" t="n">
         <v>93.2436976906228</v>
@@ -5460,28 +5460,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S16" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T16" t="n">
-        <v>1537.369875986873</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U16" t="n">
-        <v>1537.369875986873</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V16" t="n">
-        <v>1537.369875986873</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W16" t="n">
-        <v>1537.369875986873</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X16" t="n">
-        <v>1537.369875986873</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y16" t="n">
-        <v>1370.277254385804</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2238.282892603803</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C17" t="n">
-        <v>1828.158301917073</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D17" t="n">
-        <v>1423.694372010133</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E17" t="n">
-        <v>1009.35415652703</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F17" t="n">
-        <v>588.3237444807176</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="G17" t="n">
-        <v>179.5954603735497</v>
+        <v>464.5807072718708</v>
       </c>
       <c r="H17" t="n">
-        <v>179.5954603735497</v>
+        <v>153.6722098995888</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5518,7 +5518,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5542,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T17" t="n">
-        <v>4440.742490420091</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U17" t="n">
-        <v>4183.681998679601</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V17" t="n">
-        <v>3833.844444016082</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W17" t="n">
-        <v>3450.08414315125</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X17" t="n">
-        <v>3049.440745320202</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y17" t="n">
-        <v>2648.504072268292</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="18">
@@ -5597,25 +5597,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>324.9649248943615</v>
       </c>
       <c r="L18" t="n">
-        <v>93.2436976906228</v>
+        <v>324.9649248943615</v>
       </c>
       <c r="M18" t="n">
-        <v>936.2207783851894</v>
+        <v>324.9649248943615</v>
       </c>
       <c r="N18" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O18" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P18" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q18" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>175.630695628225</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C19" t="n">
         <v>93.2436976906228</v>
@@ -5712,13 +5712,13 @@
         <v>826.4099627738212</v>
       </c>
       <c r="W19" t="n">
-        <v>826.4099627738212</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X19" t="n">
-        <v>588.0661006335047</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y19" t="n">
-        <v>363.3304020222694</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2102.237727455811</v>
+        <v>2237.518802661711</v>
       </c>
       <c r="C20" t="n">
-        <v>1692.113136769081</v>
+        <v>1827.394211974981</v>
       </c>
       <c r="D20" t="n">
-        <v>1287.649206862142</v>
+        <v>1422.930282068041</v>
       </c>
       <c r="E20" t="n">
-        <v>873.3089913790386</v>
+        <v>1008.590066584938</v>
       </c>
       <c r="F20" t="n">
-        <v>490.5039577458317</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G20" t="n">
         <v>490.5039577458317</v>
@@ -5779,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T20" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U20" t="n">
-        <v>4047.636833531609</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V20" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W20" t="n">
-        <v>3314.038978003258</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X20" t="n">
-        <v>2913.395580172211</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y20" t="n">
-        <v>2512.458907120301</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M21" t="n">
-        <v>936.2207783851894</v>
+        <v>286.056555253256</v>
       </c>
       <c r="N21" t="n">
-        <v>1809.878870496807</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3962.358632327273</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C22" t="n">
-        <v>3962.358632327273</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>3891.531821096053</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K22" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L22" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M22" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N22" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O22" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P22" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>4475.79311641105</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>4236.244377387751</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U22" t="n">
-        <v>4236.244377387751</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V22" t="n">
-        <v>3962.358632327273</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W22" t="n">
-        <v>3962.358632327273</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X22" t="n">
-        <v>3962.358632327273</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y22" t="n">
-        <v>3962.358632327273</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="23">
@@ -5989,7 +5989,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J23" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K23" t="n">
         <v>885.5886702674165</v>
@@ -6016,16 +6016,16 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V23" t="n">
-        <v>4047.636833531609</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W23" t="n">
         <v>3674.640877840605</v>
@@ -6068,28 +6068,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R24" t="n">
         <v>2139.732893541123</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3732.335952894417</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C25" t="n">
-        <v>3561.242580456134</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D25" t="n">
-        <v>3449.64383417929</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E25" t="n">
-        <v>3449.64383417929</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>3449.64383417929</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
-        <v>3282.393443104833</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K25" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L25" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M25" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N25" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O25" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P25" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T25" t="n">
-        <v>4662.18488453114</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U25" t="n">
-        <v>4662.18488453114</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V25" t="n">
-        <v>4662.18488453114</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W25" t="n">
-        <v>4383.115220040014</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X25" t="n">
-        <v>4144.771357899697</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y25" t="n">
-        <v>3920.035659288462</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C26" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D26" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E26" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F26" t="n">
-        <v>452.2785793327262</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G26" t="n">
-        <v>93.24369769062287</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H26" t="n">
-        <v>93.24369769062287</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I26" t="n">
-        <v>93.24369769062287</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J26" t="n">
         <v>347.4291691583771</v>
       </c>
       <c r="K26" t="n">
-        <v>885.5886702674167</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L26" t="n">
         <v>1598.180070079655</v>
@@ -6253,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T26" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U26" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V26" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W26" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X26" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y26" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>947.1447271725442</v>
       </c>
       <c r="M27" t="n">
-        <v>562.1177108836107</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N27" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1182.57754799176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C28" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D28" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E28" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6414,22 +6414,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U28" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V28" t="n">
-        <v>1622.642594311473</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W28" t="n">
-        <v>1622.642594311473</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X28" t="n">
-        <v>1595.012952997039</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y28" t="n">
-        <v>1370.277254385804</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="29">
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2102.237727455811</v>
+        <v>2237.518802661711</v>
       </c>
       <c r="C29" t="n">
-        <v>1692.113136769081</v>
+        <v>1827.394211974981</v>
       </c>
       <c r="D29" t="n">
-        <v>1287.649206862142</v>
+        <v>1422.930282068041</v>
       </c>
       <c r="E29" t="n">
-        <v>873.3089913790386</v>
+        <v>1008.590066584938</v>
       </c>
       <c r="F29" t="n">
-        <v>452.2785793327262</v>
+        <v>587.5596545386256</v>
       </c>
       <c r="G29" t="n">
-        <v>179.5954603735497</v>
+        <v>178.8313704314578</v>
       </c>
       <c r="H29" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J29" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K29" t="n">
         <v>885.5886702674165</v>
@@ -6490,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T29" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U29" t="n">
-        <v>4047.636833531609</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V29" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W29" t="n">
-        <v>3314.038978003258</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X29" t="n">
-        <v>2913.395580172211</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y29" t="n">
-        <v>2512.458907120301</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L30" t="n">
-        <v>524.2254458227151</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M30" t="n">
-        <v>524.2254458227151</v>
+        <v>286.056555253256</v>
       </c>
       <c r="N30" t="n">
-        <v>524.2254458227151</v>
+        <v>1159.714647364874</v>
       </c>
       <c r="O30" t="n">
-        <v>1228.182536368609</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P30" t="n">
-        <v>1789.888428857139</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1161.057142856951</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="C31" t="n">
-        <v>1011.484175553476</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="D31" t="n">
-        <v>851.989530876386</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="E31" t="n">
-        <v>691.0787157447054</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="F31" t="n">
-        <v>526.4475898552967</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G31" t="n">
-        <v>359.19719878084</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H31" t="n">
         <v>209.5897435862967</v>
@@ -6651,22 +6651,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U31" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V31" t="n">
-        <v>1348.756849250995</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W31" t="n">
-        <v>1348.756849250995</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X31" t="n">
-        <v>1348.756849250995</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y31" t="n">
-        <v>1348.756849250995</v>
+        <v>209.5897435862967</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2549.191389976085</v>
+        <v>2324.444211508952</v>
       </c>
       <c r="C32" t="n">
-        <v>2139.066799289355</v>
+        <v>1914.319620822223</v>
       </c>
       <c r="D32" t="n">
         <v>1734.602869382415</v>
@@ -6727,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T32" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U32" t="n">
-        <v>4405.12439279065</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V32" t="n">
-        <v>4144.752941388363</v>
+        <v>3920.005762921231</v>
       </c>
       <c r="W32" t="n">
-        <v>3760.992640523532</v>
+        <v>3536.245462056399</v>
       </c>
       <c r="X32" t="n">
-        <v>3360.349242692484</v>
+        <v>3135.602064225352</v>
       </c>
       <c r="Y32" t="n">
-        <v>2959.412569640574</v>
+        <v>2734.665391173442</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M33" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N33" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q33" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R33" t="n">
         <v>2139.732893541123</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4222.119838211426</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C34" t="n">
-        <v>4051.026465773143</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D34" t="n">
-        <v>3891.531821096053</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E34" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K34" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L34" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M34" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N34" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O34" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P34" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>4662.18488453114</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U34" t="n">
-        <v>4662.18488453114</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V34" t="n">
-        <v>4662.18488453114</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W34" t="n">
-        <v>4662.18488453114</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X34" t="n">
-        <v>4634.555243216706</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y34" t="n">
-        <v>4409.819544605471</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2549.191389976085</v>
+        <v>2128.160977929772</v>
       </c>
       <c r="C35" t="n">
-        <v>2139.066799289355</v>
+        <v>1718.036387243042</v>
       </c>
       <c r="D35" t="n">
-        <v>1734.602869382415</v>
+        <v>1313.572457336103</v>
       </c>
       <c r="E35" t="n">
-        <v>1320.262653899312</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="F35" t="n">
         <v>899.2322418529996</v>
@@ -6937,7 +6937,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K35" t="n">
         <v>885.5886702674165</v>
@@ -6964,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T35" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U35" t="n">
-        <v>4494.590496051882</v>
+        <v>4073.56008400557</v>
       </c>
       <c r="V35" t="n">
-        <v>4144.752941388363</v>
+        <v>3723.722529342051</v>
       </c>
       <c r="W35" t="n">
-        <v>3760.992640523532</v>
+        <v>3339.962228477219</v>
       </c>
       <c r="X35" t="n">
-        <v>3360.349242692484</v>
+        <v>2939.318830646172</v>
       </c>
       <c r="Y35" t="n">
-        <v>2959.412569640574</v>
+        <v>2538.382157594262</v>
       </c>
     </row>
     <row r="36">
@@ -7025,19 +7025,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M36" t="n">
-        <v>936.2207783851894</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N36" t="n">
-        <v>1809.878870496807</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>936.3214442457152</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C37" t="n">
-        <v>765.2280718074317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D37" t="n">
-        <v>735.6434849807119</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E37" t="n">
-        <v>574.7326698490315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F37" t="n">
-        <v>410.1015439596227</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G37" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H37" t="n">
         <v>93.2436976906228</v>
@@ -7125,22 +7125,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U37" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V37" t="n">
-        <v>1348.756849250995</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W37" t="n">
-        <v>1348.756849250995</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X37" t="n">
-        <v>1348.756849250995</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y37" t="n">
-        <v>1124.02115063976</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="38">
@@ -7201,10 +7201,10 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T38" t="n">
-        <v>4408.238733368956</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U38" t="n">
         <v>4408.238733368956</v>
@@ -7262,13 +7262,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M39" t="n">
-        <v>562.1177108836107</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N39" t="n">
-        <v>1435.775802995229</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1640.177868931084</v>
       </c>
       <c r="P39" t="n">
         <v>2139.732893541123</v>
@@ -7438,19 +7438,19 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>4526.90380932524</v>
+        <v>4573.214074014467</v>
       </c>
       <c r="T41" t="n">
-        <v>4494.590496051882</v>
+        <v>4351.007589961326</v>
       </c>
       <c r="U41" t="n">
-        <v>4494.590496051882</v>
+        <v>4093.947098220835</v>
       </c>
       <c r="V41" t="n">
-        <v>4144.752941388363</v>
+        <v>3744.109543557316</v>
       </c>
       <c r="W41" t="n">
-        <v>3760.992640523532</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="X41" t="n">
         <v>3360.349242692484</v>
@@ -7499,16 +7499,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M42" t="n">
-        <v>562.1177108836107</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N42" t="n">
-        <v>1435.775802995229</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="O42" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P42" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q42" t="n">
         <v>2139.732893541123</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C43" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D43" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E43" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F43" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G43" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H43" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I43" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J43" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K43" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L43" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M43" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N43" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O43" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P43" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q43" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T43" t="n">
-        <v>4422.636145507842</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U43" t="n">
-        <v>4139.837998053967</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V43" t="n">
-        <v>3865.952252993488</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W43" t="n">
-        <v>3586.882588502363</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X43" t="n">
-        <v>3348.538726362046</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y43" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2462.839627293158</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C44" t="n">
-        <v>2052.715036606428</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D44" t="n">
-        <v>1648.251106699488</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E44" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F44" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G44" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H44" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I44" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
         <v>885.5886702674165</v>
@@ -7675,25 +7675,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T44" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U44" t="n">
-        <v>4408.238733368956</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V44" t="n">
-        <v>4058.401178705436</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W44" t="n">
-        <v>3674.640877840605</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X44" t="n">
-        <v>3273.997480009557</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y44" t="n">
-        <v>2873.060806957647</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="45">
@@ -7727,28 +7727,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K45" t="n">
-        <v>741.8628115185547</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L45" t="n">
-        <v>1198.623017005979</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M45" t="n">
-        <v>1198.623017005979</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N45" t="n">
-        <v>1198.623017005979</v>
+        <v>754.331869609911</v>
       </c>
       <c r="O45" t="n">
-        <v>1198.623017005979</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P45" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q45" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R45" t="n">
         <v>2139.732893541123</v>
@@ -7990,10 +7990,10 @@
         <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
         <v>93.64936328088416</v>
@@ -8060,25 +8060,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808746</v>
+        <v>562.8045877599696</v>
       </c>
       <c r="M3" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
-        <v>330.6111652313504</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
         <v>88.85829947169823</v>
@@ -8218,13 +8218,13 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>590.1064824525349</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270711</v>
+        <v>594.2603172363632</v>
       </c>
       <c r="N5" t="n">
         <v>614.9758611266449</v>
@@ -8233,7 +8233,7 @@
         <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
         <v>90.03380439915205</v>
@@ -8300,25 +8300,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637755</v>
+        <v>170.9271386512354</v>
       </c>
       <c r="O6" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
-        <v>555.229727782121</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,19 +8452,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L8" t="n">
-        <v>755.344870820532</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
         <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>853.701196452193</v>
+        <v>820.4571235793086</v>
       </c>
       <c r="O8" t="n">
         <v>743.321953824879</v>
@@ -8473,10 +8473,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8546,7 +8546,7 @@
         <v>935.6763147186165</v>
       </c>
       <c r="O9" t="n">
-        <v>321.6714250266352</v>
+        <v>291.8133246603418</v>
       </c>
       <c r="P9" t="n">
         <v>621.6393243851574</v>
@@ -8555,7 +8555,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8707,7 +8707,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>628.1510783507342</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
         <v>414.4388617681339</v>
@@ -8768,28 +8768,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>601.0963663600584</v>
+        <v>861.1477197149511</v>
       </c>
       <c r="O12" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
         <v>59.00019910540541</v>
@@ -8929,7 +8929,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>632.7318453389136</v>
+        <v>632.7318453389137</v>
       </c>
       <c r="L14" t="n">
         <v>815.2746908024792</v>
@@ -8950,7 +8950,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,25 +9005,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>723.8803540323523</v>
+        <v>194.539943489316</v>
       </c>
       <c r="M15" t="n">
-        <v>178.5117997957786</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N15" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
@@ -9166,7 +9166,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
-        <v>632.7318453389137</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L17" t="n">
         <v>815.2746908024792</v>
@@ -9187,7 +9187,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,28 +9245,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>289.8876284449575</v>
       </c>
       <c r="L18" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O18" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
         <v>55.82578278461539</v>
@@ -9488,22 +9488,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>263.9099299663046</v>
       </c>
       <c r="O21" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>531.1743980747688</v>
+        <v>311.5827583176448</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,22 +10190,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
-        <v>491.4496229341746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>97.05286247586417</v>
       </c>
       <c r="P30" t="n">
         <v>621.6393243851574</v>
@@ -10214,7 +10214,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10673,22 +10673,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>458.6703921507826</v>
       </c>
       <c r="O36" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10910,16 +10910,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>531.1743980747688</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>558.8606699624394</v>
       </c>
       <c r="Q39" t="n">
         <v>56.69261850483872</v>
@@ -11147,19 +11147,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>488.5284925170755</v>
       </c>
       <c r="O42" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
         <v>59.00019910540541</v>
@@ -11375,13 +11375,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L45" t="n">
-        <v>517.4884687476416</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
         <v>57.56428373841742</v>
@@ -11390,7 +11390,7 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>57.751479</v>
+        <v>536.3885161299984</v>
       </c>
       <c r="P45" t="n">
         <v>621.6393243851574</v>
@@ -11399,7 +11399,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22546,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>45.10777180386947</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>416.8201079258493</v>
@@ -22597,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>338.0920986645876</v>
       </c>
     </row>
     <row r="3">
@@ -22704,10 +22704,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
         <v>157.8996982303191</v>
@@ -22755,19 +22755,19 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>126.9450269688244</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>193.4209809967736</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -22786,7 +22786,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>364.2459780521189</v>
       </c>
       <c r="D5" t="n">
         <v>400.41929060787</v>
@@ -22798,10 +22798,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>65.28280402329767</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -22840,10 +22840,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -22852,7 +22852,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22989,16 +22989,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>211.3650181101788</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -23007,10 +23007,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>128.1378550829758</v>
       </c>
     </row>
     <row r="8">
@@ -23029,13 +23029,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>312.7485948743977</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>396.0887321237322</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23071,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -23080,7 +23080,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23089,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -23226,10 +23226,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23244,10 +23244,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>55.35263051300484</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884604</v>
       </c>
     </row>
     <row r="11">
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>88.57144222861982</v>
+        <v>62.56142803888719</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>142.0904386938123</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,22 +23466,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>3.08319717252283</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>45.84716204233396</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>57.06664624006493</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="17">
@@ -23743,16 +23743,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>25.66401796922125</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0.756449042671278</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>87.81931075567451</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="20">
@@ -23980,10 +23980,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>37.84312462897441</v>
+        <v>308.5558614412301</v>
       </c>
       <c r="G20" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>87.781155111411</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="23">
@@ -24256,19 +24256,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>10.65670172208877</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>47.41693941624312</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
@@ -24378,10 +24378,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
         <v>115.1825854367171</v>
@@ -24417,13 +24417,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="26">
@@ -24457,10 +24457,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>49.19646844041387</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>85.48824505609757</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,22 +24654,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="29">
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>134.6847134965114</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>223.0676163851325</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>21.30520108346084</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24891,22 +24891,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>124.0757159946015</v>
       </c>
     </row>
     <row r="32">
@@ -24922,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>222.4997066824609</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>219.9844192126098</v>
@@ -24976,7 +24976,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>88.57144222862024</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,22 +25128,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>208.6070786176241</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="35">
@@ -25165,7 +25165,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>88.57144222861982</v>
+        <v>25.66401796922159</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>128.6109572718666</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
         <v>115.1825854367171</v>
@@ -25365,19 +25365,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>8.893130557884376</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>102.5059940158882</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>45.84716204233405</v>
       </c>
       <c r="T41" t="n">
-        <v>187.994239071985</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>8.893130557883893</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="44">
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>3.083197172522915</v>
+        <v>222.4997066824603</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>513843.2501050773</v>
+        <v>513843.2501050772</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>513843.2501050773</v>
+        <v>513843.2501050775</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>782296.2147749175</v>
+        <v>782296.2147749176</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>782296.2147749175</v>
+        <v>782296.2147749176</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>782296.2147749175</v>
+        <v>782296.2147749176</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>782296.2147749172</v>
+        <v>782296.2147749175</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>782296.2147749175</v>
+        <v>782296.2147749176</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>782296.2147749173</v>
+        <v>782296.2147749176</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>782296.2147749175</v>
+        <v>782296.2147749176</v>
       </c>
     </row>
     <row r="13">
@@ -26316,43 +26316,43 @@
         <v>161720.1620581895</v>
       </c>
       <c r="C2" t="n">
-        <v>161720.1620581895</v>
+        <v>161720.1620581894</v>
       </c>
       <c r="D2" t="n">
-        <v>234342.8728032615</v>
+        <v>234342.8728032614</v>
       </c>
       <c r="E2" t="n">
         <v>246201.3674048298</v>
       </c>
       <c r="F2" t="n">
-        <v>246201.3674048298</v>
+        <v>246201.3674048297</v>
       </c>
       <c r="G2" t="n">
-        <v>246201.3674048298</v>
+        <v>246201.3674048299</v>
       </c>
       <c r="H2" t="n">
-        <v>246201.3674048297</v>
+        <v>246201.3674048299</v>
       </c>
       <c r="I2" t="n">
         <v>246201.3674048298</v>
       </c>
       <c r="J2" t="n">
-        <v>246201.3674048297</v>
+        <v>246201.3674048298</v>
       </c>
       <c r="K2" t="n">
-        <v>246201.3674048298</v>
+        <v>246201.3674048299</v>
       </c>
       <c r="L2" t="n">
         <v>246201.3674048298</v>
       </c>
       <c r="M2" t="n">
-        <v>246201.3674048298</v>
+        <v>246201.3674048297</v>
       </c>
       <c r="N2" t="n">
-        <v>246201.3674048298</v>
+        <v>246201.3674048297</v>
       </c>
       <c r="O2" t="n">
-        <v>246201.3674048298</v>
+        <v>246201.3674048297</v>
       </c>
       <c r="P2" t="n">
         <v>246201.3674048298</v>
@@ -26374,7 +26374,7 @@
         <v>171827.4689100685</v>
       </c>
       <c r="E3" t="n">
-        <v>26968.9541809342</v>
+        <v>26968.95418093424</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>139999.3108647528</v>
+        <v>139999.3108647527</v>
       </c>
       <c r="M3" t="n">
-        <v>22509.2647740474</v>
+        <v>22509.26477404744</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26475,7 +26475,7 @@
         <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>99001.07135520027</v>
+        <v>99001.07135520026</v>
       </c>
       <c r="E5" t="n">
         <v>70865.21024487332</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-88695.18035776459</v>
+        <v>-89372.70921715864</v>
       </c>
       <c r="C6" t="n">
-        <v>86260.32953534953</v>
+        <v>85582.8006759554</v>
       </c>
       <c r="D6" t="n">
-        <v>-51196.61612373905</v>
+        <v>-51446.95256698564</v>
       </c>
       <c r="E6" t="n">
-        <v>132901.8292419583</v>
+        <v>132721.2486493092</v>
       </c>
       <c r="F6" t="n">
-        <v>159870.7834228925</v>
+        <v>159690.2028302434</v>
       </c>
       <c r="G6" t="n">
-        <v>159870.7834228925</v>
+        <v>159690.2028302435</v>
       </c>
       <c r="H6" t="n">
-        <v>159870.7834228924</v>
+        <v>159690.2028302435</v>
       </c>
       <c r="I6" t="n">
-        <v>159870.7834228925</v>
+        <v>159690.2028302434</v>
       </c>
       <c r="J6" t="n">
-        <v>23275.98261699744</v>
+        <v>23095.40202434838</v>
       </c>
       <c r="K6" t="n">
-        <v>159870.7834228925</v>
+        <v>159690.2028302435</v>
       </c>
       <c r="L6" t="n">
-        <v>19871.47255813971</v>
+        <v>19690.89196549062</v>
       </c>
       <c r="M6" t="n">
-        <v>137361.5186488451</v>
+        <v>137180.9380561959</v>
       </c>
       <c r="N6" t="n">
-        <v>159870.7834228925</v>
+        <v>159690.2028302434</v>
       </c>
       <c r="O6" t="n">
-        <v>159870.7834228925</v>
+        <v>159690.2028302434</v>
       </c>
       <c r="P6" t="n">
-        <v>159870.7834228924</v>
+        <v>159690.2028302434</v>
       </c>
     </row>
   </sheetData>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>553.1579979720842</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="E4" t="n">
-        <v>90.32465279067513</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>553.1579979720842</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>90.32465279067512</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>553.1579979720842</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>90.32465279067513</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -34710,10 +34710,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491206</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P3" t="n">
-        <v>276.3515302285466</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
         <v>29.85810036629282</v>
@@ -34938,13 +34938,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>500.9700927793178</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>522.0635703700256</v>
       </c>
       <c r="N5" t="n">
         <v>522.0635703700256</v>
@@ -34953,7 +34953,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35020,25 +35020,25 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>522.0635703700256</v>
+        <v>117.7337452574854</v>
       </c>
       <c r="O6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
-        <v>500.9700927793172</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
         <v>543.5954556656965</v>
       </c>
       <c r="L8" t="n">
-        <v>659.8594727576872</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
         <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>760.7889056955737</v>
+        <v>727.5448328226893</v>
       </c>
       <c r="O8" t="n">
         <v>650.1321781990958</v>
@@ -35193,10 +35193,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35266,7 +35266,7 @@
         <v>882.4829213248665</v>
       </c>
       <c r="O9" t="n">
-        <v>263.9199460266352</v>
+        <v>234.0618456603418</v>
       </c>
       <c r="P9" t="n">
         <v>567.3796893823536</v>
@@ -35275,7 +35275,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35427,7 +35427,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>534.5017150698501</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
         <v>324.4050573689818</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>547.9029729663084</v>
+        <v>807.9543263212012</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,7 +35649,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>543.5954556656965</v>
+        <v>543.5954556656966</v>
       </c>
       <c r="L14" t="n">
         <v>719.7892927396343</v>
@@ -35670,7 +35670,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>667.7658302215033</v>
+        <v>138.425419678467</v>
       </c>
       <c r="M15" t="n">
-        <v>120.9475160573612</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35886,7 +35886,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
-        <v>543.5954556656966</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L17" t="n">
         <v>719.7892927396343</v>
@@ -35907,7 +35907,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,28 +35965,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>234.0618456603421</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O18" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36208,22 +36208,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>210.7165365725546</v>
       </c>
       <c r="O21" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>473.6101143363514</v>
+        <v>254.0184745792274</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36910,22 +36910,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>435.3350991233255</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>39.30138347586418</v>
       </c>
       <c r="P30" t="n">
         <v>567.3796893823536</v>
@@ -36934,7 +36934,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37393,22 +37393,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>405.4769987570326</v>
       </c>
       <c r="O36" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>473.6101143363514</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>504.6010349596356</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37867,19 +37867,19 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>882.4829213248665</v>
+        <v>435.3350991233255</v>
       </c>
       <c r="O42" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>461.3739449367926</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38110,7 +38110,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>478.6370371299984</v>
       </c>
       <c r="P45" t="n">
         <v>567.3796893823536</v>
@@ -38119,7 +38119,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
